--- a/testing/pwtp_wa_anon_model.xlsx
+++ b/testing/pwtp_wa_anon_model.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11015"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufr/code/EIRAPSI-SYS-MODELS/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A1686A-4B6B-7540-95DB-21306FF51FD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="788" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" tabRatio="788" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="system_meta" sheetId="17" r:id="rId1"/>
@@ -27,7 +21,7 @@
     <sheet name="Tanks" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">component_connections!$A$1:$E$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">component_connections!$A$1:$E$108</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">component_list!$A$1:$I$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">excluded_components!#REF!</definedName>
     <definedName name="COMPONENT_LOCATION_CONF">OFFSET(VALIDATION_TABLES!$D$2,0,0,COUNTA(VALIDATION_TABLES!$D$2:$D$201),1)</definedName>
@@ -36,7 +30,7 @@
     <definedName name="RESTORATION_TIME_UNIT">OFFSET(VALIDATION_TABLES!$C$2,0,0,COUNTA(VALIDATION_TABLES!$C$2:$C$201),1)</definedName>
     <definedName name="SYSTEM_CLASSES">OFFSET(VALIDATION_TABLES!$B$2,0,0,COUNTA(VALIDATION_TABLES!$B$2:$B$201),1)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -46,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2849" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="403">
   <si>
     <t>component_type</t>
   </si>
@@ -1266,7 +1260,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -4453,29 +4447,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797CEC7-A6A2-B747-AAEC-9C8A878367B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" style="50" customWidth="1"/>
+    <col min="1" max="1" width="28.375" style="50" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="50" customWidth="1"/>
-    <col min="3" max="3" width="83.6640625" style="50" customWidth="1"/>
+    <col min="3" max="3" width="83.625" style="50" customWidth="1"/>
     <col min="4" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="170" t="s">
         <v>351</v>
       </c>
@@ -4486,7 +4480,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="174" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="174" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="171" t="s">
         <v>353</v>
       </c>
@@ -4495,7 +4489,7 @@
       </c>
       <c r="C2" s="173"/>
     </row>
-    <row r="3" spans="1:3" s="174" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="174" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="171" t="s">
         <v>354</v>
       </c>
@@ -4504,7 +4498,7 @@
       </c>
       <c r="C3" s="173"/>
     </row>
-    <row r="4" spans="1:3" s="174" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="174" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="171" t="s">
         <v>355</v>
       </c>
@@ -4515,7 +4509,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="174" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="174" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="171" t="s">
         <v>356</v>
       </c>
@@ -4524,7 +4518,7 @@
       </c>
       <c r="C5" s="173"/>
     </row>
-    <row r="6" spans="1:3" s="174" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="174" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="171" t="s">
         <v>357</v>
       </c>
@@ -4533,153 +4527,153 @@
       </c>
       <c r="C6" s="173"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="53"/>
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="53"/>
       <c r="B8" s="53"/>
       <c r="C8" s="53"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="53"/>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="53"/>
       <c r="B10" s="53"/>
       <c r="C10" s="53"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
       <c r="B12" s="53"/>
       <c r="C12" s="53"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="53"/>
       <c r="B13" s="53"/>
       <c r="C13" s="53"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
       <c r="B14" s="53"/>
       <c r="C14" s="53"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
       <c r="B15" s="53"/>
       <c r="C15" s="53"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="53"/>
       <c r="C16" s="53"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="53"/>
       <c r="B17" s="53"/>
       <c r="C17" s="53"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="53"/>
       <c r="B18" s="53"/>
       <c r="C18" s="53"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="53"/>
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="53"/>
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="53"/>
       <c r="B22" s="53"/>
       <c r="C22" s="53"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="53"/>
       <c r="B23" s="53"/>
       <c r="C23" s="53"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="53"/>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="53"/>
       <c r="B26" s="53"/>
       <c r="C26" s="53"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="53"/>
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="53"/>
       <c r="B28" s="53"/>
       <c r="C28" s="53"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
       <c r="B29" s="53"/>
       <c r="C29" s="53"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="53"/>
       <c r="B31" s="53"/>
       <c r="C31" s="53"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
       <c r="B32" s="53"/>
       <c r="C32" s="53"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="53"/>
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{47F7D3B4-64BF-8445-9A39-1556B42B4B87}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
       <formula1>COMPONENT_LOCATION_CONF</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B6" xr:uid="{8B75CBF8-743E-6848-A6A2-E582BFCB1A27}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B6">
       <formula1>RESTORATION_TIME_UNIT</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{353C35F5-C811-5240-A9A7-059A3A0FE025}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
       <formula1>SYSTEM_CLASSES</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{91F707BF-EAD3-9948-9BBC-B5D8AE25AC1E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>INFRASTRUCTURE_LEVEL</formula1>
     </dataValidation>
   </dataValidations>
@@ -4688,22 +4682,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="44.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="5" customWidth="1"/>
     <col min="4" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>42</v>
       </c>
@@ -4714,32 +4708,32 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>170</v>
       </c>
@@ -4750,7 +4744,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>178</v>
       </c>
@@ -4758,7 +4752,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>171</v>
       </c>
@@ -4769,12 +4763,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>43</v>
       </c>
@@ -4782,22 +4776,22 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>108</v>
       </c>
@@ -4808,7 +4802,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>110</v>
       </c>
@@ -4819,7 +4813,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>107</v>
       </c>
@@ -4830,7 +4824,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>238</v>
       </c>
@@ -4841,7 +4835,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>235</v>
       </c>
@@ -4852,7 +4846,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>236</v>
       </c>
@@ -4863,7 +4857,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>112</v>
       </c>
@@ -4874,7 +4868,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>109</v>
       </c>
@@ -4885,7 +4879,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>237</v>
       </c>
@@ -4896,7 +4890,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>234</v>
       </c>
@@ -4904,247 +4898,247 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="45" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="52" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="53" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="57" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="64" spans="1:1" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="72" spans="1:2" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>157</v>
       </c>
@@ -5152,26 +5146,26 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="75" spans="1:2" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:2" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:2" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:2" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:2" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="11" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:2" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:2" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:2" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:2" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A2:C76">
     <sortCondition ref="A2:A76"/>
@@ -5182,19 +5176,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="42.375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="42.33203125" style="1"/>
+    <col min="1" max="16384" width="42.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>120</v>
       </c>
@@ -5202,7 +5196,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>114</v>
       </c>
@@ -5210,7 +5204,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>115</v>
       </c>
@@ -5218,17 +5212,17 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
         <v>121</v>
       </c>
@@ -5236,7 +5230,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
         <v>118</v>
       </c>
@@ -5244,7 +5238,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
         <v>116</v>
       </c>
@@ -5252,7 +5246,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>117</v>
       </c>
@@ -5267,31 +5261,31 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1"/>
-    <col min="3" max="3" width="34.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1"/>
     <col min="5" max="5" width="27" style="1" customWidth="1"/>
     <col min="6" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="23"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
     </row>
-    <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>105</v>
       </c>
@@ -5300,7 +5294,7 @@
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
     </row>
-    <row r="3" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>97</v>
       </c>
@@ -5318,7 +5312,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>1</v>
       </c>
@@ -5336,7 +5330,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>2</v>
       </c>
@@ -5354,7 +5348,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>3</v>
       </c>
@@ -5372,7 +5366,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>3</v>
       </c>
@@ -5390,7 +5384,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>4</v>
       </c>
@@ -5408,7 +5402,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>4</v>
       </c>
@@ -5426,7 +5420,7 @@
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -5444,7 +5438,7 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -5462,7 +5456,7 @@
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
         <v>5</v>
       </c>
@@ -5480,7 +5474,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
         <v>5</v>
       </c>
@@ -5498,21 +5492,21 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>102</v>
       </c>
@@ -5523,7 +5517,7 @@
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="23" t="s">
         <v>104</v>
@@ -5532,7 +5526,7 @@
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -5545,22 +5539,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="50" customWidth="1"/>
+    <col min="1" max="1" width="24.875" style="50" customWidth="1"/>
     <col min="2" max="2" width="51" style="50" customWidth="1"/>
-    <col min="3" max="3" width="83.6640625" style="50" customWidth="1"/>
+    <col min="3" max="3" width="83.625" style="50" customWidth="1"/>
     <col min="4" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>181</v>
       </c>
@@ -5571,7 +5565,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="53" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="53" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
         <v>185</v>
       </c>
@@ -5582,7 +5576,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="53" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="53" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>186</v>
       </c>
@@ -5593,7 +5587,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="53" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="53" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
         <v>187</v>
       </c>
@@ -5604,7 +5598,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="53" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="53" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>188</v>
       </c>
@@ -5613,7 +5607,7 @@
       </c>
       <c r="C5" s="52"/>
     </row>
-    <row r="6" spans="1:3" s="53" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="53" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
         <v>189</v>
       </c>
@@ -5624,7 +5618,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="53" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="53" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
         <v>190</v>
       </c>
@@ -5633,137 +5627,137 @@
       </c>
       <c r="C7" s="52"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="53"/>
       <c r="B8" s="53"/>
       <c r="C8" s="53"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="53"/>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="53"/>
       <c r="B10" s="53"/>
       <c r="C10" s="53"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
       <c r="B12" s="53"/>
       <c r="C12" s="53"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="53"/>
       <c r="B13" s="53"/>
       <c r="C13" s="53"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
       <c r="B14" s="53"/>
       <c r="C14" s="53"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
       <c r="B15" s="53"/>
       <c r="C15" s="53"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="53"/>
       <c r="C16" s="53"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="53"/>
       <c r="B17" s="53"/>
       <c r="C17" s="53"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="53"/>
       <c r="B18" s="53"/>
       <c r="C18" s="53"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="53"/>
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="53"/>
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="53"/>
       <c r="B22" s="53"/>
       <c r="C22" s="53"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="53"/>
       <c r="B23" s="53"/>
       <c r="C23" s="53"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="53"/>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="53"/>
       <c r="B26" s="53"/>
       <c r="C26" s="53"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="53"/>
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="53"/>
       <c r="B28" s="53"/>
       <c r="C28" s="53"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
       <c r="B29" s="53"/>
       <c r="C29" s="53"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="53"/>
       <c r="B31" s="53"/>
       <c r="C31" s="53"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
       <c r="B32" s="53"/>
       <c r="C32" s="53"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="53"/>
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="53"/>
       <c r="B34" s="53"/>
       <c r="C34" s="53"/>
@@ -5774,31 +5768,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF66CCFF"/>
   </sheetPr>
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.83203125" style="72" customWidth="1"/>
-    <col min="2" max="2" width="32.83203125" style="72" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="72" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="72" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="72" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" style="72" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="72" customWidth="1"/>
-    <col min="8" max="9" width="14.83203125" style="130" customWidth="1"/>
+    <col min="1" max="1" width="36.875" style="72" customWidth="1"/>
+    <col min="2" max="2" width="32.875" style="72" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="72" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="72" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="72" customWidth="1"/>
+    <col min="6" max="6" width="19.875" style="72" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="72" customWidth="1"/>
+    <col min="8" max="9" width="14.875" style="130" customWidth="1"/>
     <col min="10" max="16384" width="11" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="164" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="164" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="160" t="s">
         <v>21</v>
       </c>
@@ -5827,7 +5821,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>162</v>
       </c>
@@ -5857,7 +5851,7 @@
       </c>
       <c r="J2" s="176"/>
     </row>
-    <row r="3" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="149" t="s">
         <v>376</v>
       </c>
@@ -5887,7 +5881,7 @@
       </c>
       <c r="J3" s="176"/>
     </row>
-    <row r="4" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="149" t="s">
         <v>377</v>
       </c>
@@ -5917,7 +5911,7 @@
       </c>
       <c r="J4" s="176"/>
     </row>
-    <row r="5" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>378</v>
       </c>
@@ -5947,7 +5941,7 @@
       </c>
       <c r="J5" s="176"/>
     </row>
-    <row r="6" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>379</v>
       </c>
@@ -5977,7 +5971,7 @@
       </c>
       <c r="J6" s="176"/>
     </row>
-    <row r="7" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>380</v>
       </c>
@@ -6007,7 +6001,7 @@
       </c>
       <c r="J7" s="176"/>
     </row>
-    <row r="8" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>402</v>
       </c>
@@ -6037,7 +6031,7 @@
       </c>
       <c r="J8" s="176"/>
     </row>
-    <row r="9" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>164</v>
       </c>
@@ -6067,7 +6061,7 @@
       </c>
       <c r="J9" s="176"/>
     </row>
-    <row r="10" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>165</v>
       </c>
@@ -6097,7 +6091,7 @@
       </c>
       <c r="J10" s="176"/>
     </row>
-    <row r="11" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>174</v>
       </c>
@@ -6127,7 +6121,7 @@
       </c>
       <c r="J11" s="176"/>
     </row>
-    <row r="12" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>176</v>
       </c>
@@ -6157,7 +6151,7 @@
       </c>
       <c r="J12" s="176"/>
     </row>
-    <row r="13" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>175</v>
       </c>
@@ -6187,7 +6181,7 @@
       </c>
       <c r="J13" s="176"/>
     </row>
-    <row r="14" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>177</v>
       </c>
@@ -6217,7 +6211,7 @@
       </c>
       <c r="J14" s="176"/>
     </row>
-    <row r="15" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>381</v>
       </c>
@@ -6247,7 +6241,7 @@
       </c>
       <c r="J15" s="176"/>
     </row>
-    <row r="16" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>382</v>
       </c>
@@ -6277,7 +6271,7 @@
       </c>
       <c r="J16" s="176"/>
     </row>
-    <row r="17" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>166</v>
       </c>
@@ -6307,7 +6301,7 @@
       </c>
       <c r="J17" s="176"/>
     </row>
-    <row r="18" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>383</v>
       </c>
@@ -6337,7 +6331,7 @@
       </c>
       <c r="J18" s="176"/>
     </row>
-    <row r="19" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>384</v>
       </c>
@@ -6367,7 +6361,7 @@
       </c>
       <c r="J19" s="176"/>
     </row>
-    <row r="20" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>385</v>
       </c>
@@ -6397,7 +6391,7 @@
       </c>
       <c r="J20" s="176"/>
     </row>
-    <row r="21" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>386</v>
       </c>
@@ -6427,7 +6421,7 @@
       </c>
       <c r="J21" s="176"/>
     </row>
-    <row r="22" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>173</v>
       </c>
@@ -6457,7 +6451,7 @@
       </c>
       <c r="J22" s="176"/>
     </row>
-    <row r="23" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
         <v>163</v>
       </c>
@@ -6488,7 +6482,7 @@
       <c r="J23" s="176"/>
       <c r="K23" s="73"/>
     </row>
-    <row r="24" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>208</v>
       </c>
@@ -6518,7 +6512,7 @@
       </c>
       <c r="J24" s="176"/>
     </row>
-    <row r="25" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>387</v>
       </c>
@@ -6548,7 +6542,7 @@
       </c>
       <c r="J25" s="176"/>
     </row>
-    <row r="26" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
         <v>388</v>
       </c>
@@ -6578,7 +6572,7 @@
       </c>
       <c r="J26" s="176"/>
     </row>
-    <row r="27" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>389</v>
       </c>
@@ -6608,7 +6602,7 @@
       </c>
       <c r="J27" s="176"/>
     </row>
-    <row r="28" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>130</v>
       </c>
@@ -6638,7 +6632,7 @@
       </c>
       <c r="J28" s="176"/>
     </row>
-    <row r="29" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="147" t="s">
         <v>220</v>
       </c>
@@ -6668,7 +6662,7 @@
       </c>
       <c r="J29" s="176"/>
     </row>
-    <row r="30" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="147" t="s">
         <v>205</v>
       </c>
@@ -6698,7 +6692,7 @@
       </c>
       <c r="J30" s="176"/>
     </row>
-    <row r="31" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="147" t="s">
         <v>204</v>
       </c>
@@ -6728,7 +6722,7 @@
       </c>
       <c r="J31" s="176"/>
     </row>
-    <row r="32" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="179" t="s">
         <v>156</v>
       </c>
@@ -6758,7 +6752,7 @@
       </c>
       <c r="J32" s="176"/>
     </row>
-    <row r="33" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="147" t="s">
         <v>202</v>
       </c>
@@ -6788,7 +6782,7 @@
       </c>
       <c r="J33" s="176"/>
     </row>
-    <row r="34" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="147" t="s">
         <v>203</v>
       </c>
@@ -6818,7 +6812,7 @@
       </c>
       <c r="J34" s="176"/>
     </row>
-    <row r="35" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="148" t="s">
         <v>201</v>
       </c>
@@ -6848,7 +6842,7 @@
       </c>
       <c r="J35" s="176"/>
     </row>
-    <row r="36" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="148" t="s">
         <v>136</v>
       </c>
@@ -6878,7 +6872,7 @@
       </c>
       <c r="J36" s="176"/>
     </row>
-    <row r="37" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="148" t="s">
         <v>135</v>
       </c>
@@ -6908,7 +6902,7 @@
       </c>
       <c r="J37" s="176"/>
     </row>
-    <row r="38" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="148" t="s">
         <v>137</v>
       </c>
@@ -6938,7 +6932,7 @@
       </c>
       <c r="J38" s="176"/>
     </row>
-    <row r="39" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="148" t="s">
         <v>138</v>
       </c>
@@ -6968,7 +6962,7 @@
       </c>
       <c r="J39" s="176"/>
     </row>
-    <row r="40" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="148" t="s">
         <v>139</v>
       </c>
@@ -6998,7 +6992,7 @@
       </c>
       <c r="J40" s="176"/>
     </row>
-    <row r="41" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="148" t="s">
         <v>140</v>
       </c>
@@ -7028,7 +7022,7 @@
       </c>
       <c r="J41" s="176"/>
     </row>
-    <row r="42" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="148" t="s">
         <v>132</v>
       </c>
@@ -7058,7 +7052,7 @@
       </c>
       <c r="J42" s="176"/>
     </row>
-    <row r="43" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="148" t="s">
         <v>133</v>
       </c>
@@ -7088,7 +7082,7 @@
       </c>
       <c r="J43" s="176"/>
     </row>
-    <row r="44" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="148" t="s">
         <v>360</v>
       </c>
@@ -7118,7 +7112,7 @@
       </c>
       <c r="J44" s="176"/>
     </row>
-    <row r="45" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="148" t="s">
         <v>361</v>
       </c>
@@ -7149,7 +7143,7 @@
       <c r="J45" s="176"/>
       <c r="K45" s="176"/>
     </row>
-    <row r="46" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="148" t="s">
         <v>362</v>
       </c>
@@ -7180,7 +7174,7 @@
       <c r="J46" s="176"/>
       <c r="K46" s="176"/>
     </row>
-    <row r="47" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="151" t="s">
         <v>154</v>
       </c>
@@ -7211,7 +7205,7 @@
       <c r="J47" s="176"/>
       <c r="K47" s="176"/>
     </row>
-    <row r="48" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="148" t="s">
         <v>134</v>
       </c>
@@ -7242,7 +7236,7 @@
       <c r="J48" s="176"/>
       <c r="K48" s="176"/>
     </row>
-    <row r="49" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>401</v>
       </c>
@@ -7273,7 +7267,7 @@
       <c r="J49" s="176"/>
       <c r="K49" s="176"/>
     </row>
-    <row r="50" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="150" t="s">
         <v>400</v>
       </c>
@@ -7304,7 +7298,7 @@
       <c r="J50" s="176"/>
       <c r="K50" s="176"/>
     </row>
-    <row r="51" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
         <v>69</v>
       </c>
@@ -7335,7 +7329,7 @@
       <c r="J51" s="176"/>
       <c r="K51" s="176"/>
     </row>
-    <row r="52" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>152</v>
       </c>
@@ -7366,7 +7360,7 @@
       <c r="J52" s="176"/>
       <c r="K52" s="176"/>
     </row>
-    <row r="53" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
         <v>70</v>
       </c>
@@ -7396,7 +7390,7 @@
       </c>
       <c r="J53" s="176"/>
     </row>
-    <row r="54" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>153</v>
       </c>
@@ -7426,7 +7420,7 @@
       </c>
       <c r="J54" s="176"/>
     </row>
-    <row r="55" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
         <v>390</v>
       </c>
@@ -7456,7 +7450,7 @@
       </c>
       <c r="J55" s="176"/>
     </row>
-    <row r="56" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
         <v>391</v>
       </c>
@@ -7486,7 +7480,7 @@
       </c>
       <c r="J56" s="176"/>
     </row>
-    <row r="57" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
         <v>392</v>
       </c>
@@ -7516,7 +7510,7 @@
       </c>
       <c r="J57" s="176"/>
     </row>
-    <row r="58" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
         <v>393</v>
       </c>
@@ -7546,7 +7540,7 @@
       </c>
       <c r="J58" s="176"/>
     </row>
-    <row r="59" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
         <v>394</v>
       </c>
@@ -7576,7 +7570,7 @@
       </c>
       <c r="J59" s="176"/>
     </row>
-    <row r="60" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="150" t="s">
         <v>395</v>
       </c>
@@ -7605,7 +7599,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
         <v>396</v>
       </c>
@@ -7634,7 +7628,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="s">
         <v>397</v>
       </c>
@@ -7663,7 +7657,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="149" t="s">
         <v>194</v>
       </c>
@@ -7692,7 +7686,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="149" t="s">
         <v>195</v>
       </c>
@@ -7721,7 +7715,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="149" t="s">
         <v>196</v>
       </c>
@@ -7750,7 +7744,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="149" t="s">
         <v>197</v>
       </c>
@@ -7779,7 +7773,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="149" t="s">
         <v>198</v>
       </c>
@@ -7808,7 +7802,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="149" t="s">
         <v>199</v>
       </c>
@@ -7837,7 +7831,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
         <v>398</v>
       </c>
@@ -7867,7 +7861,7 @@
       </c>
       <c r="J69" s="176"/>
     </row>
-    <row r="70" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="31" t="s">
         <v>399</v>
       </c>
@@ -7896,7 +7890,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="54"/>
       <c r="B71" s="54"/>
       <c r="C71" s="54"/>
@@ -7907,7 +7901,7 @@
       <c r="H71" s="56"/>
       <c r="I71" s="56"/>
     </row>
-    <row r="72" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="54"/>
       <c r="B72" s="54"/>
       <c r="C72" s="54"/>
@@ -7918,11 +7912,11 @@
       <c r="H72" s="56"/>
       <c r="I72" s="56"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D73" s="122"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I70" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="A1:I70">
     <sortState ref="A2:I70">
       <sortCondition ref="C2:C70"/>
     </sortState>
@@ -7961,7 +7955,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B72" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B72">
       <formula1>ComponentTypeList</formula1>
     </dataValidation>
   </dataValidations>
@@ -7971,27 +7965,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF66CCFF"/>
   </sheetPr>
-  <dimension ref="A1:E172"/>
+  <dimension ref="A1:E177"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78:D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" style="54" customWidth="1"/>
-    <col min="2" max="2" width="39.1640625" style="54" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="55" customWidth="1"/>
+    <col min="1" max="1" width="35.875" style="54" customWidth="1"/>
+    <col min="2" max="2" width="39.125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="55" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="55" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="54"/>
+    <col min="5" max="16384" width="10.875" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="119" t="s">
         <v>30</v>
       </c>
@@ -8005,7 +7999,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>389</v>
       </c>
@@ -8019,7 +8013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>382</v>
       </c>
@@ -8033,7 +8027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>387</v>
       </c>
@@ -8047,7 +8041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>388</v>
       </c>
@@ -8061,7 +8055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>385</v>
       </c>
@@ -8075,7 +8069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>162</v>
       </c>
@@ -8089,7 +8083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="125" t="s">
         <v>386</v>
       </c>
@@ -8103,7 +8097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>202</v>
       </c>
@@ -8118,7 +8112,7 @@
       </c>
       <c r="E9" s="65"/>
     </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>202</v>
       </c>
@@ -8133,7 +8127,7 @@
       </c>
       <c r="E10" s="65"/>
     </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>202</v>
       </c>
@@ -8148,7 +8142,7 @@
       </c>
       <c r="E11" s="65"/>
     </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>386</v>
       </c>
@@ -8163,7 +8157,7 @@
       </c>
       <c r="E12" s="65"/>
     </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>384</v>
       </c>
@@ -8178,7 +8172,7 @@
       </c>
       <c r="E13" s="65"/>
     </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>383</v>
       </c>
@@ -8193,7 +8187,7 @@
       </c>
       <c r="E14" s="65"/>
     </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
         <v>205</v>
       </c>
@@ -8207,7 +8201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>205</v>
       </c>
@@ -8221,7 +8215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>205</v>
       </c>
@@ -8235,7 +8229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>205</v>
       </c>
@@ -8249,7 +8243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>205</v>
       </c>
@@ -8263,7 +8257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>205</v>
       </c>
@@ -8277,7 +8271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>204</v>
       </c>
@@ -8291,7 +8285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>204</v>
       </c>
@@ -8305,7 +8299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>204</v>
       </c>
@@ -8319,12 +8313,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B24" s="128" t="s">
-        <v>380</v>
+        <v>163</v>
       </c>
       <c r="C24" s="38">
         <v>1</v>
@@ -8333,128 +8327,128 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="125" t="s">
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B25" s="125" t="s">
+      <c r="B25" s="128" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="38">
+        <v>1</v>
+      </c>
+      <c r="D25" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26" s="125" t="s">
         <v>400</v>
       </c>
-      <c r="C25" s="126">
-        <v>1</v>
-      </c>
-      <c r="D25" s="127">
-        <v>1</v>
-      </c>
-      <c r="E25" s="65" t="s">
+      <c r="C26" s="126">
+        <v>1</v>
+      </c>
+      <c r="D26" s="127">
+        <v>1</v>
+      </c>
+      <c r="E26" s="65" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="125" t="s">
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="125" t="s">
         <v>400</v>
       </c>
-      <c r="B26" s="125" t="s">
+      <c r="B27" s="125" t="s">
         <v>395</v>
       </c>
-      <c r="C26" s="126">
-        <v>1</v>
-      </c>
-      <c r="D26" s="127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46" t="s">
+      <c r="C27" s="126">
+        <v>1</v>
+      </c>
+      <c r="D27" s="127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B28" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="C27" s="47">
-        <v>1</v>
-      </c>
-      <c r="D27" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="C28" s="47">
+        <v>1</v>
+      </c>
+      <c r="D28" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="38">
-        <v>1</v>
-      </c>
-      <c r="D28" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="C29" s="38">
+        <v>1</v>
+      </c>
+      <c r="D29" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="38">
-        <v>1</v>
-      </c>
-      <c r="D29" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="C30" s="38">
+        <v>1</v>
+      </c>
+      <c r="D30" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C30" s="38">
-        <v>1</v>
-      </c>
-      <c r="D30" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="C31" s="38">
+        <v>1</v>
+      </c>
+      <c r="D31" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B32" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="C31" s="38">
-        <v>1</v>
-      </c>
-      <c r="D31" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="C32" s="38">
+        <v>1</v>
+      </c>
+      <c r="D32" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B33" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="C32" s="38">
-        <v>1</v>
-      </c>
-      <c r="D32" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>194</v>
-      </c>
       <c r="C33" s="38">
         <v>1</v>
       </c>
@@ -8462,12 +8456,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>376</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C34" s="38">
         <v>1</v>
@@ -8476,26 +8470,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>376</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C35" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>376</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C36" s="38">
         <v>2</v>
@@ -8504,12 +8498,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>376</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C37" s="38">
         <v>2</v>
@@ -8518,12 +8512,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>199</v>
+      <c r="B38" s="31" t="s">
+        <v>198</v>
       </c>
       <c r="C38" s="38">
         <v>2</v>
@@ -8532,23 +8526,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31" t="s">
+    <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" s="38">
+        <v>2</v>
+      </c>
+      <c r="D39" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
         <v>194</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C39" s="38">
-        <v>1</v>
-      </c>
-      <c r="D39" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="31" t="s">
-        <v>195</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>220</v>
@@ -8560,23 +8554,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C41" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>220</v>
@@ -8588,9 +8582,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>220</v>
@@ -8602,9 +8596,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>199</v>
+    <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
+        <v>198</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>220</v>
@@ -8616,96 +8610,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>377</v>
+        <v>199</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="C45" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>377</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="38">
+        <v>1</v>
+      </c>
+      <c r="D46" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C46" s="38">
-        <v>1</v>
-      </c>
-      <c r="D46" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="66" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" s="40">
-        <v>1</v>
-      </c>
-      <c r="D47" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="38">
+        <v>1</v>
+      </c>
+      <c r="D47" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="40">
+        <v>1</v>
+      </c>
+      <c r="D48" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C48" s="38">
-        <v>1</v>
-      </c>
-      <c r="D48" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="C49" s="38">
+        <v>1</v>
+      </c>
+      <c r="D49" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C49" s="38">
-        <v>1</v>
-      </c>
-      <c r="D49" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="22" t="s">
+      <c r="C50" s="38">
+        <v>1</v>
+      </c>
+      <c r="D50" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="C50" s="42">
-        <v>1</v>
-      </c>
-      <c r="D50" s="43">
-        <v>1</v>
-      </c>
-      <c r="E50" s="65" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
-        <v>165</v>
       </c>
       <c r="B51" s="22" t="s">
         <v>390</v>
@@ -8716,227 +8707,230 @@
       <c r="D51" s="43">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="34" t="s">
+      <c r="E51" s="65" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="C52" s="42">
+        <v>1</v>
+      </c>
+      <c r="D52" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="B53" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="44">
-        <v>1</v>
-      </c>
-      <c r="D52" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="46" t="s">
+      <c r="C53" s="44">
+        <v>1</v>
+      </c>
+      <c r="D53" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B54" s="46" t="s">
         <v>391</v>
       </c>
-      <c r="C53" s="47">
-        <v>1</v>
-      </c>
-      <c r="D53" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="C54" s="47">
+        <v>1</v>
+      </c>
+      <c r="D54" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C54" s="38">
-        <v>1</v>
-      </c>
-      <c r="D54" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+      <c r="C55" s="38">
+        <v>1</v>
+      </c>
+      <c r="D55" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C55" s="38">
-        <v>1</v>
-      </c>
-      <c r="D55" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="C56" s="38">
+        <v>1</v>
+      </c>
+      <c r="D56" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C56" s="38">
-        <v>1</v>
-      </c>
-      <c r="D56" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="C57" s="38">
+        <v>1</v>
+      </c>
+      <c r="D57" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C57" s="38">
-        <v>1</v>
-      </c>
-      <c r="D57" s="39">
-        <v>1</v>
-      </c>
-      <c r="E57" s="65" t="s">
+      <c r="C58" s="38">
+        <v>1</v>
+      </c>
+      <c r="D58" s="39">
+        <v>1</v>
+      </c>
+      <c r="E58" s="65" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C58" s="38">
-        <v>1</v>
-      </c>
-      <c r="D58" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="46" t="s">
+      <c r="C59" s="38">
+        <v>1</v>
+      </c>
+      <c r="D59" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="B59" s="46" t="s">
+      <c r="B60" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="C59" s="47">
-        <v>1</v>
-      </c>
-      <c r="D59" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="C60" s="47">
+        <v>1</v>
+      </c>
+      <c r="D60" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C60" s="38">
-        <v>1</v>
-      </c>
-      <c r="D60" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="C61" s="38">
+        <v>1</v>
+      </c>
+      <c r="D61" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C61" s="38">
-        <v>1</v>
-      </c>
-      <c r="D61" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="C62" s="38">
+        <v>1</v>
+      </c>
+      <c r="D62" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C62" s="38">
-        <v>1</v>
-      </c>
-      <c r="D62" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="C63" s="38">
+        <v>1</v>
+      </c>
+      <c r="D63" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="38">
-        <v>1</v>
-      </c>
-      <c r="D63" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="46" t="s">
+      <c r="C64" s="38">
+        <v>1</v>
+      </c>
+      <c r="D64" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B65" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="47">
-        <v>1</v>
-      </c>
-      <c r="D64" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C65" s="38">
-        <v>1</v>
-      </c>
-      <c r="D65" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="47">
+        <v>1</v>
+      </c>
+      <c r="D65" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C66" s="38">
+        <v>1</v>
+      </c>
+      <c r="D66" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C66" s="38">
-        <v>1</v>
-      </c>
-      <c r="D66" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="178" t="s">
-        <v>380</v>
-      </c>
-      <c r="B67" s="178" t="s">
-        <v>173</v>
-      </c>
       <c r="C67" s="38">
         <v>1</v>
       </c>
@@ -8944,12 +8938,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="178" t="s">
         <v>380</v>
       </c>
       <c r="B68" s="178" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C68" s="38">
         <v>1</v>
@@ -8958,12 +8952,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="178" t="s">
         <v>380</v>
       </c>
       <c r="B69" s="178" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C69" s="38">
         <v>1</v>
@@ -8972,12 +8966,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="178" t="s">
         <v>380</v>
       </c>
       <c r="B70" s="178" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C70" s="38">
         <v>1</v>
@@ -8986,12 +8980,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="178" t="s">
         <v>380</v>
       </c>
       <c r="B71" s="178" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C71" s="38">
         <v>1</v>
@@ -9000,654 +8994,724 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="178" t="s">
         <v>380</v>
       </c>
       <c r="B72" s="178" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" s="38">
+        <v>1</v>
+      </c>
+      <c r="D72" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="178" t="s">
+        <v>380</v>
+      </c>
+      <c r="B73" s="178" t="s">
         <v>177</v>
       </c>
-      <c r="C72" s="38">
-        <v>1</v>
-      </c>
-      <c r="D72" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="178" t="s">
-        <v>173</v>
-      </c>
-      <c r="B73" s="178" t="s">
-        <v>174</v>
-      </c>
       <c r="C73" s="38">
         <v>1</v>
       </c>
       <c r="D73" s="39">
         <v>1</v>
       </c>
-      <c r="E73" s="54" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="178" t="s">
         <v>173</v>
       </c>
       <c r="B74" s="178" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" s="38">
+        <v>1</v>
+      </c>
+      <c r="D74" s="39">
+        <v>1</v>
+      </c>
+      <c r="E74" s="54" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="178" t="s">
+        <v>173</v>
+      </c>
+      <c r="B75" s="178" t="s">
         <v>176</v>
       </c>
-      <c r="C74" s="38">
-        <v>1</v>
-      </c>
-      <c r="D74" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="178" t="s">
-        <v>163</v>
-      </c>
-      <c r="B75" s="178" t="s">
-        <v>175</v>
-      </c>
       <c r="C75" s="38">
         <v>1</v>
       </c>
       <c r="D75" s="39">
         <v>1</v>
       </c>
-      <c r="E75" s="54" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="178" t="s">
         <v>163</v>
       </c>
       <c r="B76" s="178" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" s="38">
+        <v>1</v>
+      </c>
+      <c r="D76" s="39">
+        <v>1</v>
+      </c>
+      <c r="E76" s="54" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="178" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" s="178" t="s">
         <v>177</v>
       </c>
-      <c r="C76" s="38">
-        <v>1</v>
-      </c>
-      <c r="D76" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+      <c r="C77" s="38">
+        <v>1</v>
+      </c>
+      <c r="D77" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="178" t="s">
+        <v>174</v>
+      </c>
+      <c r="B78" s="178" t="s">
+        <v>362</v>
+      </c>
+      <c r="C78" s="38">
+        <v>1</v>
+      </c>
+      <c r="D78" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="178" t="s">
+        <v>176</v>
+      </c>
+      <c r="B79" s="178" t="s">
+        <v>362</v>
+      </c>
+      <c r="C79" s="38">
+        <v>1</v>
+      </c>
+      <c r="D79" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="178" t="s">
+        <v>175</v>
+      </c>
+      <c r="B80" s="178" t="s">
+        <v>362</v>
+      </c>
+      <c r="C80" s="38">
+        <v>1</v>
+      </c>
+      <c r="D80" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B81" s="178" t="s">
+        <v>362</v>
+      </c>
+      <c r="C81" s="38">
+        <v>1</v>
+      </c>
+      <c r="D81" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C77" s="38">
-        <v>1</v>
-      </c>
-      <c r="D77" s="39">
-        <v>1</v>
-      </c>
-      <c r="E77" s="54" t="s">
+      <c r="C82" s="38">
+        <v>1</v>
+      </c>
+      <c r="D82" s="39">
+        <v>1</v>
+      </c>
+      <c r="E82" s="54" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C78" s="38">
-        <v>1</v>
-      </c>
-      <c r="D78" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="46" t="s">
+      <c r="C83" s="38">
+        <v>1</v>
+      </c>
+      <c r="D83" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B84" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="C79" s="47">
-        <v>1</v>
-      </c>
-      <c r="D79" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="C84" s="47">
+        <v>1</v>
+      </c>
+      <c r="D84" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B80" s="177" t="s">
+      <c r="B85" s="177" t="s">
         <v>360</v>
       </c>
-      <c r="C80" s="38">
-        <v>1</v>
-      </c>
-      <c r="D80" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+      <c r="C85" s="38">
+        <v>1</v>
+      </c>
+      <c r="D85" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B81" s="177" t="s">
+      <c r="B86" s="177" t="s">
         <v>361</v>
       </c>
-      <c r="C81" s="38">
-        <v>1</v>
-      </c>
-      <c r="D81" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="177" t="s">
+      <c r="C86" s="38">
+        <v>1</v>
+      </c>
+      <c r="D86" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="177" t="s">
         <v>360</v>
       </c>
-      <c r="B82" s="177" t="s">
+      <c r="B87" s="177" t="s">
         <v>362</v>
       </c>
-      <c r="C82" s="38">
-        <v>1</v>
-      </c>
-      <c r="D82" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="177" t="s">
+      <c r="C87" s="38">
+        <v>1</v>
+      </c>
+      <c r="D87" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="177" t="s">
         <v>361</v>
       </c>
-      <c r="B83" s="177" t="s">
+      <c r="B88" s="177" t="s">
         <v>362</v>
       </c>
-      <c r="C83" s="38">
-        <v>1</v>
-      </c>
-      <c r="D83" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="177" t="s">
+      <c r="C88" s="38">
+        <v>1</v>
+      </c>
+      <c r="D88" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="177" t="s">
         <v>362</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C84" s="38">
-        <v>1</v>
-      </c>
-      <c r="D84" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="177" t="s">
+      <c r="C89" s="38">
+        <v>1</v>
+      </c>
+      <c r="D89" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="177" t="s">
         <v>362</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C85" s="38">
-        <v>1</v>
-      </c>
-      <c r="D85" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="177" t="s">
+      <c r="C90" s="38">
+        <v>1</v>
+      </c>
+      <c r="D90" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="177" t="s">
         <v>362</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C86" s="38">
-        <v>1</v>
-      </c>
-      <c r="D86" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="177" t="s">
+      <c r="C91" s="38">
+        <v>1</v>
+      </c>
+      <c r="D91" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="177" t="s">
         <v>362</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C87" s="38">
-        <v>1</v>
-      </c>
-      <c r="D87" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+      <c r="C92" s="38">
+        <v>1</v>
+      </c>
+      <c r="D92" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="38">
-        <v>1</v>
-      </c>
-      <c r="D88" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
+      <c r="C93" s="38">
+        <v>1</v>
+      </c>
+      <c r="D93" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="38">
-        <v>1</v>
-      </c>
-      <c r="D89" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+      <c r="C94" s="38">
+        <v>1</v>
+      </c>
+      <c r="D94" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C90" s="38">
-        <v>1</v>
-      </c>
-      <c r="D90" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+      <c r="C95" s="38">
+        <v>1</v>
+      </c>
+      <c r="D95" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C91" s="38">
-        <v>1</v>
-      </c>
-      <c r="D91" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+      <c r="C96" s="38">
+        <v>1</v>
+      </c>
+      <c r="D96" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C92" s="38">
-        <v>1</v>
-      </c>
-      <c r="D92" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
+      <c r="C97" s="38">
+        <v>1</v>
+      </c>
+      <c r="D97" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B98" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C93" s="38">
-        <v>1</v>
-      </c>
-      <c r="D93" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+      <c r="C98" s="38">
+        <v>1</v>
+      </c>
+      <c r="D98" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C94" s="38">
-        <v>1</v>
-      </c>
-      <c r="D94" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+      <c r="C99" s="38">
+        <v>1</v>
+      </c>
+      <c r="D99" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C95" s="38">
-        <v>1</v>
-      </c>
-      <c r="D95" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+      <c r="C100" s="38">
+        <v>1</v>
+      </c>
+      <c r="D100" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B101" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C96" s="38">
-        <v>1</v>
-      </c>
-      <c r="D96" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+      <c r="C101" s="38">
+        <v>1</v>
+      </c>
+      <c r="D101" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B102" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C97" s="38">
-        <v>1</v>
-      </c>
-      <c r="D97" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+      <c r="C102" s="38">
+        <v>1</v>
+      </c>
+      <c r="D102" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B103" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C98" s="38">
-        <v>1</v>
-      </c>
-      <c r="D98" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+      <c r="C103" s="38">
+        <v>1</v>
+      </c>
+      <c r="D103" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C99" s="38">
-        <v>1</v>
-      </c>
-      <c r="D99" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+      <c r="C104" s="38">
+        <v>1</v>
+      </c>
+      <c r="D104" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B100" s="129" t="s">
+      <c r="B105" s="129" t="s">
         <v>399</v>
       </c>
-      <c r="C100" s="38">
-        <v>1</v>
-      </c>
-      <c r="D100" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="33" t="s">
+      <c r="C105" s="38">
+        <v>1</v>
+      </c>
+      <c r="D105" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="B101" s="129" t="s">
+      <c r="B106" s="129" t="s">
         <v>399</v>
       </c>
-      <c r="C101" s="38">
-        <v>1</v>
-      </c>
-      <c r="D101" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="129" t="s">
+      <c r="C106" s="38">
+        <v>1</v>
+      </c>
+      <c r="D106" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="129" t="s">
         <v>399</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B107" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C102" s="38">
-        <v>1</v>
-      </c>
-      <c r="D102" s="39">
-        <v>1</v>
-      </c>
-      <c r="E102" s="67" t="s">
+      <c r="C107" s="38">
+        <v>1</v>
+      </c>
+      <c r="D107" s="39">
+        <v>1</v>
+      </c>
+      <c r="E107" s="67" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="34" t="s">
+    <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B103" s="34" t="s">
+      <c r="B108" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="C103" s="44">
-        <v>1</v>
-      </c>
-      <c r="D103" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="68"/>
-      <c r="B104" s="68"/>
-      <c r="C104" s="69"/>
-      <c r="D104" s="70"/>
-    </row>
-    <row r="105" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C105" s="71"/>
-    </row>
-    <row r="106" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C106" s="71"/>
-    </row>
-    <row r="107" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C107" s="71"/>
-    </row>
-    <row r="108" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C108" s="71"/>
-    </row>
-    <row r="109" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C109" s="71"/>
-    </row>
-    <row r="110" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C108" s="44">
+        <v>1</v>
+      </c>
+      <c r="D108" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="68"/>
+      <c r="B109" s="68"/>
+      <c r="C109" s="69"/>
+      <c r="D109" s="70"/>
+    </row>
+    <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C110" s="71"/>
     </row>
-    <row r="111" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C111" s="71"/>
     </row>
-    <row r="112" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C112" s="71"/>
     </row>
-    <row r="113" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C113" s="71"/>
     </row>
-    <row r="114" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C114" s="71"/>
     </row>
-    <row r="115" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C115" s="71"/>
     </row>
-    <row r="116" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C116" s="71"/>
     </row>
-    <row r="117" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C117" s="71"/>
     </row>
-    <row r="118" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C118" s="71"/>
     </row>
-    <row r="119" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C119" s="71"/>
     </row>
-    <row r="120" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C120" s="71"/>
     </row>
-    <row r="121" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C121" s="71"/>
     </row>
-    <row r="122" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C122" s="71"/>
     </row>
-    <row r="123" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C123" s="71"/>
     </row>
-    <row r="124" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C124" s="71"/>
     </row>
-    <row r="125" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C125" s="71"/>
     </row>
-    <row r="126" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C126" s="71"/>
     </row>
-    <row r="127" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C127" s="71"/>
     </row>
-    <row r="128" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C128" s="71"/>
     </row>
-    <row r="129" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C129" s="71"/>
     </row>
-    <row r="130" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C130" s="71"/>
     </row>
-    <row r="131" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C131" s="71"/>
     </row>
-    <row r="132" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C132" s="71"/>
     </row>
-    <row r="133" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C133" s="71"/>
     </row>
-    <row r="134" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C134" s="71"/>
     </row>
-    <row r="135" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C135" s="71"/>
     </row>
-    <row r="136" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C136" s="71"/>
     </row>
-    <row r="137" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C137" s="71"/>
     </row>
-    <row r="138" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C138" s="71"/>
     </row>
-    <row r="139" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C139" s="71"/>
     </row>
-    <row r="140" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C140" s="71"/>
     </row>
-    <row r="141" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C141" s="71"/>
     </row>
-    <row r="142" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C142" s="71"/>
     </row>
-    <row r="143" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C143" s="71"/>
     </row>
-    <row r="144" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C144" s="71"/>
     </row>
-    <row r="145" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C145" s="71"/>
     </row>
-    <row r="146" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C146" s="71"/>
     </row>
-    <row r="147" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C147" s="71"/>
     </row>
-    <row r="148" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C148" s="71"/>
     </row>
-    <row r="149" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C149" s="71"/>
     </row>
-    <row r="150" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C150" s="71"/>
     </row>
-    <row r="151" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C151" s="71"/>
     </row>
-    <row r="152" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C152" s="71"/>
     </row>
-    <row r="153" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C153" s="71"/>
     </row>
-    <row r="154" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C154" s="71"/>
     </row>
-    <row r="155" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C155" s="71"/>
     </row>
-    <row r="156" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C156" s="71"/>
     </row>
-    <row r="157" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C157" s="71"/>
     </row>
-    <row r="158" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C158" s="71"/>
     </row>
-    <row r="159" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C159" s="71"/>
     </row>
-    <row r="160" spans="3:3" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C160" s="71"/>
+    </row>
+    <row r="161" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C161" s="71"/>
+    </row>
+    <row r="162" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C162" s="71"/>
+    </row>
+    <row r="163" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C163" s="71"/>
+    </row>
+    <row r="164" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C164" s="71"/>
+    </row>
+    <row r="165" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A104:B244" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>$A$2:$A$77</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A109:B249">
+      <formula1>$A$2:$A$82</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9655,17 +9719,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>component_list!$A$2:$A$70</xm:f>
           </x14:formula1>
           <xm:sqref>E9:E14</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>component_list!$A$2:$A$71</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:B103</xm:sqref>
+          <xm:sqref>A2:B108</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9674,7 +9738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF80FF00"/>
   </sheetPr>
@@ -9684,15 +9748,15 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" style="54" customWidth="1"/>
-    <col min="2" max="3" width="20.83203125" style="55" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" style="55" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="54"/>
+    <col min="1" max="1" width="30.875" style="54" customWidth="1"/>
+    <col min="2" max="3" width="20.875" style="55" customWidth="1"/>
+    <col min="4" max="4" width="30.875" style="55" customWidth="1"/>
+    <col min="5" max="16384" width="10.875" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="86" t="s">
         <v>33</v>
       </c>
@@ -9706,7 +9770,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>130</v>
       </c>
@@ -9720,7 +9784,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
         <v>389</v>
       </c>
@@ -9734,25 +9798,25 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="90"/>
       <c r="B4" s="91"/>
       <c r="C4" s="84"/>
       <c r="D4" s="85"/>
     </row>
-    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="90"/>
       <c r="B5" s="91"/>
       <c r="C5" s="84"/>
       <c r="D5" s="85"/>
     </row>
-    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90"/>
       <c r="B6" s="91"/>
       <c r="C6" s="84"/>
       <c r="D6" s="85"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="56"/>
     </row>
   </sheetData>
@@ -9762,7 +9826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF80FF00"/>
   </sheetPr>
@@ -9772,15 +9836,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30.83203125" style="75" customWidth="1"/>
-    <col min="3" max="4" width="22.83203125" style="55" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="54" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="54"/>
+    <col min="1" max="2" width="30.875" style="75" customWidth="1"/>
+    <col min="3" max="4" width="22.875" style="55" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="54" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
         <v>36</v>
       </c>
@@ -9797,7 +9861,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
         <v>156</v>
       </c>
@@ -9814,28 +9878,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="82"/>
       <c r="B3" s="83"/>
       <c r="C3" s="84"/>
       <c r="D3" s="84"/>
       <c r="E3" s="85"/>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="82"/>
       <c r="B4" s="83"/>
       <c r="C4" s="84"/>
       <c r="D4" s="84"/>
       <c r="E4" s="85"/>
     </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="82"/>
       <c r="B5" s="83"/>
       <c r="C5" s="84"/>
       <c r="D5" s="84"/>
       <c r="E5" s="85"/>
     </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="82"/>
       <c r="B6" s="83"/>
       <c r="C6" s="84"/>
@@ -9849,38 +9913,38 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:S193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="I23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="7" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="43.125" style="7" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="7" customWidth="1"/>
-    <col min="6" max="8" width="14.1640625" style="92" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="108" customWidth="1"/>
-    <col min="10" max="13" width="11.1640625" style="92" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="7" customWidth="1"/>
+    <col min="6" max="8" width="14.125" style="92" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="108" customWidth="1"/>
+    <col min="10" max="13" width="11.125" style="92" customWidth="1"/>
     <col min="14" max="14" width="15" style="7" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" style="92" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" style="92" customWidth="1"/>
-    <col min="17" max="17" width="19.1640625" style="8" customWidth="1"/>
-    <col min="18" max="19" width="59.6640625" style="7" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="9"/>
+    <col min="15" max="15" width="12.625" style="92" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="92" customWidth="1"/>
+    <col min="17" max="17" width="19.125" style="8" customWidth="1"/>
+    <col min="18" max="19" width="59.625" style="7" customWidth="1"/>
+    <col min="20" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="98" t="s">
         <v>221</v>
       </c>
@@ -9939,7 +10003,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="101">
         <f t="shared" ref="A2:A62" si="0">ROW()-1</f>
         <v>1</v>
@@ -9998,7 +10062,7 @@
       </c>
       <c r="S2" s="106"/>
     </row>
-    <row r="3" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="101">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -10055,7 +10119,7 @@
       <c r="R3" s="106"/>
       <c r="S3" s="106"/>
     </row>
-    <row r="4" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="101">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -10112,7 +10176,7 @@
       <c r="R4" s="106"/>
       <c r="S4" s="106"/>
     </row>
-    <row r="5" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="101">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -10170,7 +10234,7 @@
       <c r="R5" s="106"/>
       <c r="S5" s="106"/>
     </row>
-    <row r="6" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="101">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -10229,7 +10293,7 @@
       </c>
       <c r="S6" s="106"/>
     </row>
-    <row r="7" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="101">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -10286,7 +10350,7 @@
       <c r="R7" s="106"/>
       <c r="S7" s="106"/>
     </row>
-    <row r="8" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="101">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -10343,7 +10407,7 @@
       <c r="R8" s="106"/>
       <c r="S8" s="106"/>
     </row>
-    <row r="9" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="101">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -10401,7 +10465,7 @@
       <c r="R9" s="106"/>
       <c r="S9" s="106"/>
     </row>
-    <row r="10" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="101">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -10461,7 +10525,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="101">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -10517,7 +10581,7 @@
       <c r="R11" s="106"/>
       <c r="S11" s="106"/>
     </row>
-    <row r="12" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="101">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -10573,7 +10637,7 @@
       <c r="R12" s="106"/>
       <c r="S12" s="106"/>
     </row>
-    <row r="13" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="101">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -10630,7 +10694,7 @@
       <c r="R13" s="106"/>
       <c r="S13" s="106"/>
     </row>
-    <row r="14" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="101">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -10690,7 +10754,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="101">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -10746,7 +10810,7 @@
       <c r="R15" s="106"/>
       <c r="S15" s="106"/>
     </row>
-    <row r="16" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="101">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -10802,7 +10866,7 @@
       <c r="R16" s="106"/>
       <c r="S16" s="106"/>
     </row>
-    <row r="17" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="101">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -10859,7 +10923,7 @@
       <c r="R17" s="106"/>
       <c r="S17" s="106"/>
     </row>
-    <row r="18" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="101">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -10919,7 +10983,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="101">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -10975,7 +11039,7 @@
       <c r="R19" s="106"/>
       <c r="S19" s="106"/>
     </row>
-    <row r="20" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="101">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -11031,7 +11095,7 @@
       <c r="R20" s="106"/>
       <c r="S20" s="106"/>
     </row>
-    <row r="21" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="101">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -11088,7 +11152,7 @@
       <c r="R21" s="106"/>
       <c r="S21" s="106"/>
     </row>
-    <row r="22" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="101">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -11147,7 +11211,7 @@
       </c>
       <c r="S22" s="106"/>
     </row>
-    <row r="23" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="101">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -11204,7 +11268,7 @@
       <c r="R23" s="106"/>
       <c r="S23" s="106"/>
     </row>
-    <row r="24" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="101">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -11261,7 +11325,7 @@
       <c r="R24" s="106"/>
       <c r="S24" s="106"/>
     </row>
-    <row r="25" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="101">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -11319,7 +11383,7 @@
       <c r="R25" s="106"/>
       <c r="S25" s="106"/>
     </row>
-    <row r="26" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="101">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -11378,7 +11442,7 @@
       </c>
       <c r="S26" s="106"/>
     </row>
-    <row r="27" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="101">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -11435,7 +11499,7 @@
       <c r="R27" s="106"/>
       <c r="S27" s="106"/>
     </row>
-    <row r="28" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="101">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -11492,7 +11556,7 @@
       <c r="R28" s="106"/>
       <c r="S28" s="106"/>
     </row>
-    <row r="29" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="101">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -11549,7 +11613,7 @@
       <c r="R29" s="106"/>
       <c r="S29" s="106"/>
     </row>
-    <row r="30" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="101">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -11608,7 +11672,7 @@
       </c>
       <c r="S30" s="106"/>
     </row>
-    <row r="31" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="101">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -11667,7 +11731,7 @@
       </c>
       <c r="S31" s="106"/>
     </row>
-    <row r="32" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="101">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -11726,7 +11790,7 @@
       </c>
       <c r="S32" s="106"/>
     </row>
-    <row r="33" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="101">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -11785,7 +11849,7 @@
       </c>
       <c r="S33" s="106"/>
     </row>
-    <row r="34" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="101">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -11844,7 +11908,7 @@
       </c>
       <c r="S34" s="106"/>
     </row>
-    <row r="35" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="101">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -11901,7 +11965,7 @@
       <c r="R35" s="106"/>
       <c r="S35" s="106"/>
     </row>
-    <row r="36" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="101">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -11958,7 +12022,7 @@
       <c r="R36" s="106"/>
       <c r="S36" s="106"/>
     </row>
-    <row r="37" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="101">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -12016,7 +12080,7 @@
       <c r="R37" s="106"/>
       <c r="S37" s="106"/>
     </row>
-    <row r="38" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="101">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -12075,7 +12139,7 @@
       </c>
       <c r="S38" s="99"/>
     </row>
-    <row r="39" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="101">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -12132,7 +12196,7 @@
       <c r="R39" s="99"/>
       <c r="S39" s="99"/>
     </row>
-    <row r="40" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="101">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -12189,7 +12253,7 @@
       <c r="R40" s="106"/>
       <c r="S40" s="106"/>
     </row>
-    <row r="41" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="101">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -12247,7 +12311,7 @@
       <c r="R41" s="106"/>
       <c r="S41" s="106"/>
     </row>
-    <row r="42" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="101">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -12308,7 +12372,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="101">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -12365,7 +12429,7 @@
       <c r="R43" s="99"/>
       <c r="S43" s="99"/>
     </row>
-    <row r="44" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="101">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -12422,7 +12486,7 @@
       <c r="R44" s="99"/>
       <c r="S44" s="99"/>
     </row>
-    <row r="45" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="101">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -12480,7 +12544,7 @@
       <c r="R45" s="99"/>
       <c r="S45" s="99"/>
     </row>
-    <row r="46" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="101">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -12541,7 +12605,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="101">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -12598,7 +12662,7 @@
       <c r="R47" s="106"/>
       <c r="S47" s="106"/>
     </row>
-    <row r="48" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="101">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -12655,7 +12719,7 @@
       <c r="R48" s="106"/>
       <c r="S48" s="106"/>
     </row>
-    <row r="49" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="101">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -12713,7 +12777,7 @@
       <c r="R49" s="106"/>
       <c r="S49" s="106"/>
     </row>
-    <row r="50" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="101">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -12772,7 +12836,7 @@
       </c>
       <c r="S50" s="124"/>
     </row>
-    <row r="51" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="101">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -12829,7 +12893,7 @@
       <c r="R51" s="99"/>
       <c r="S51" s="99"/>
     </row>
-    <row r="52" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="101">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -12886,7 +12950,7 @@
       <c r="R52" s="99"/>
       <c r="S52" s="99"/>
     </row>
-    <row r="53" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="101">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -12944,7 +13008,7 @@
       <c r="R53" s="99"/>
       <c r="S53" s="99"/>
     </row>
-    <row r="54" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="101">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -13003,7 +13067,7 @@
       </c>
       <c r="S54" s="124"/>
     </row>
-    <row r="55" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="101">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -13060,7 +13124,7 @@
       <c r="R55" s="99"/>
       <c r="S55" s="99"/>
     </row>
-    <row r="56" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="101">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -13117,7 +13181,7 @@
       <c r="R56" s="99"/>
       <c r="S56" s="99"/>
     </row>
-    <row r="57" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="101">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -13175,7 +13239,7 @@
       <c r="R57" s="99"/>
       <c r="S57" s="99"/>
     </row>
-    <row r="58" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="101">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -13234,7 +13298,7 @@
       </c>
       <c r="S58" s="124"/>
     </row>
-    <row r="59" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="101">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -13291,7 +13355,7 @@
       <c r="R59" s="99"/>
       <c r="S59" s="99"/>
     </row>
-    <row r="60" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="101">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -13348,7 +13412,7 @@
       <c r="R60" s="99"/>
       <c r="S60" s="99"/>
     </row>
-    <row r="61" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="101">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -13406,7 +13470,7 @@
       <c r="R61" s="99"/>
       <c r="S61" s="99"/>
     </row>
-    <row r="62" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="101">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -13465,7 +13529,7 @@
       </c>
       <c r="S62" s="106"/>
     </row>
-    <row r="63" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="101">
         <f t="shared" ref="A63:A126" si="9">ROW()-1</f>
         <v>62</v>
@@ -13522,7 +13586,7 @@
       <c r="R63" s="106"/>
       <c r="S63" s="106"/>
     </row>
-    <row r="64" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="101">
         <f t="shared" si="9"/>
         <v>63</v>
@@ -13579,7 +13643,7 @@
       <c r="R64" s="106"/>
       <c r="S64" s="106"/>
     </row>
-    <row r="65" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="101">
         <f t="shared" si="9"/>
         <v>64</v>
@@ -13636,7 +13700,7 @@
       <c r="R65" s="106"/>
       <c r="S65" s="106"/>
     </row>
-    <row r="66" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="101">
         <f t="shared" si="9"/>
         <v>65</v>
@@ -13695,7 +13759,7 @@
       </c>
       <c r="S66" s="124"/>
     </row>
-    <row r="67" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="101">
         <f t="shared" si="9"/>
         <v>66</v>
@@ -13754,7 +13818,7 @@
       </c>
       <c r="S67" s="99"/>
     </row>
-    <row r="68" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="101">
         <f t="shared" si="9"/>
         <v>67</v>
@@ -13813,7 +13877,7 @@
       </c>
       <c r="S68" s="99"/>
     </row>
-    <row r="69" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="101">
         <f t="shared" si="9"/>
         <v>68</v>
@@ -13873,7 +13937,7 @@
       </c>
       <c r="S69" s="99"/>
     </row>
-    <row r="70" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="101">
         <f t="shared" si="9"/>
         <v>69</v>
@@ -13932,7 +13996,7 @@
       </c>
       <c r="S70" s="106"/>
     </row>
-    <row r="71" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="101">
         <f t="shared" si="9"/>
         <v>70</v>
@@ -13991,7 +14055,7 @@
       </c>
       <c r="S71" s="106"/>
     </row>
-    <row r="72" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="101">
         <f t="shared" si="9"/>
         <v>71</v>
@@ -14050,7 +14114,7 @@
       </c>
       <c r="S72" s="106"/>
     </row>
-    <row r="73" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="101">
         <f t="shared" si="9"/>
         <v>72</v>
@@ -14110,7 +14174,7 @@
       </c>
       <c r="S73" s="106"/>
     </row>
-    <row r="74" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="101">
         <f t="shared" si="9"/>
         <v>73</v>
@@ -14169,7 +14233,7 @@
       </c>
       <c r="S74" s="106"/>
     </row>
-    <row r="75" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="101">
         <f t="shared" si="9"/>
         <v>74</v>
@@ -14226,7 +14290,7 @@
       <c r="R75" s="106"/>
       <c r="S75" s="106"/>
     </row>
-    <row r="76" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="101">
         <f t="shared" si="9"/>
         <v>75</v>
@@ -14283,7 +14347,7 @@
       <c r="R76" s="106"/>
       <c r="S76" s="106"/>
     </row>
-    <row r="77" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="101">
         <f t="shared" si="9"/>
         <v>76</v>
@@ -14340,7 +14404,7 @@
       <c r="R77" s="106"/>
       <c r="S77" s="106"/>
     </row>
-    <row r="78" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="101">
         <f t="shared" si="9"/>
         <v>77</v>
@@ -14399,7 +14463,7 @@
       </c>
       <c r="S78" s="106"/>
     </row>
-    <row r="79" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="101">
         <f t="shared" si="9"/>
         <v>78</v>
@@ -14456,7 +14520,7 @@
       <c r="R79" s="106"/>
       <c r="S79" s="106"/>
     </row>
-    <row r="80" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="101">
         <f t="shared" si="9"/>
         <v>79</v>
@@ -14513,7 +14577,7 @@
       <c r="R80" s="106"/>
       <c r="S80" s="106"/>
     </row>
-    <row r="81" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="101">
         <f t="shared" si="9"/>
         <v>80</v>
@@ -14570,7 +14634,7 @@
       <c r="R81" s="106"/>
       <c r="S81" s="106"/>
     </row>
-    <row r="82" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="101">
         <f t="shared" si="9"/>
         <v>81</v>
@@ -14629,7 +14693,7 @@
       </c>
       <c r="S82" s="106"/>
     </row>
-    <row r="83" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="101">
         <f t="shared" si="9"/>
         <v>82</v>
@@ -14686,7 +14750,7 @@
       <c r="R83" s="106"/>
       <c r="S83" s="106"/>
     </row>
-    <row r="84" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="101">
         <f t="shared" si="9"/>
         <v>83</v>
@@ -14743,7 +14807,7 @@
       <c r="R84" s="106"/>
       <c r="S84" s="106"/>
     </row>
-    <row r="85" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="101">
         <f t="shared" si="9"/>
         <v>84</v>
@@ -14801,7 +14865,7 @@
       <c r="R85" s="106"/>
       <c r="S85" s="106"/>
     </row>
-    <row r="86" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="101">
         <f t="shared" si="9"/>
         <v>85</v>
@@ -14860,7 +14924,7 @@
       </c>
       <c r="S86" s="106"/>
     </row>
-    <row r="87" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="101">
         <f t="shared" si="9"/>
         <v>86</v>
@@ -14917,7 +14981,7 @@
       <c r="R87" s="106"/>
       <c r="S87" s="106"/>
     </row>
-    <row r="88" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="101">
         <f t="shared" si="9"/>
         <v>87</v>
@@ -14974,7 +15038,7 @@
       <c r="R88" s="106"/>
       <c r="S88" s="106"/>
     </row>
-    <row r="89" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="101">
         <f t="shared" si="9"/>
         <v>88</v>
@@ -15032,7 +15096,7 @@
       <c r="R89" s="106"/>
       <c r="S89" s="106"/>
     </row>
-    <row r="90" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="101">
         <f t="shared" si="9"/>
         <v>89</v>
@@ -15091,7 +15155,7 @@
       </c>
       <c r="S90" s="106"/>
     </row>
-    <row r="91" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="101">
         <f t="shared" si="9"/>
         <v>90</v>
@@ -15148,7 +15212,7 @@
       <c r="R91" s="106"/>
       <c r="S91" s="106"/>
     </row>
-    <row r="92" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="101">
         <f t="shared" si="9"/>
         <v>91</v>
@@ -15205,7 +15269,7 @@
       <c r="R92" s="106"/>
       <c r="S92" s="106"/>
     </row>
-    <row r="93" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="101">
         <f t="shared" si="9"/>
         <v>92</v>
@@ -15262,7 +15326,7 @@
       <c r="R93" s="106"/>
       <c r="S93" s="106"/>
     </row>
-    <row r="94" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="101">
         <f t="shared" si="9"/>
         <v>93</v>
@@ -15321,7 +15385,7 @@
       </c>
       <c r="S94" s="106"/>
     </row>
-    <row r="95" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="101">
         <f t="shared" si="9"/>
         <v>94</v>
@@ -15378,7 +15442,7 @@
       <c r="R95" s="106"/>
       <c r="S95" s="106"/>
     </row>
-    <row r="96" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="101">
         <f t="shared" si="9"/>
         <v>95</v>
@@ -15435,7 +15499,7 @@
       <c r="R96" s="106"/>
       <c r="S96" s="106"/>
     </row>
-    <row r="97" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="101">
         <f t="shared" si="9"/>
         <v>96</v>
@@ -15493,7 +15557,7 @@
       <c r="R97" s="106"/>
       <c r="S97" s="106"/>
     </row>
-    <row r="98" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="101">
         <f t="shared" si="9"/>
         <v>97</v>
@@ -15552,7 +15616,7 @@
       </c>
       <c r="S98" s="106"/>
     </row>
-    <row r="99" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="101">
         <f t="shared" si="9"/>
         <v>98</v>
@@ -15609,7 +15673,7 @@
       <c r="R99" s="106"/>
       <c r="S99" s="106"/>
     </row>
-    <row r="100" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="101">
         <f t="shared" si="9"/>
         <v>99</v>
@@ -15666,7 +15730,7 @@
       <c r="R100" s="106"/>
       <c r="S100" s="106"/>
     </row>
-    <row r="101" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="101">
         <f t="shared" si="9"/>
         <v>100</v>
@@ -15724,7 +15788,7 @@
       <c r="R101" s="106"/>
       <c r="S101" s="106"/>
     </row>
-    <row r="102" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="101">
         <f t="shared" si="9"/>
         <v>101</v>
@@ -15783,7 +15847,7 @@
       </c>
       <c r="S102" s="106"/>
     </row>
-    <row r="103" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="101">
         <f t="shared" si="9"/>
         <v>102</v>
@@ -15840,7 +15904,7 @@
       <c r="R103" s="106"/>
       <c r="S103" s="106"/>
     </row>
-    <row r="104" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="101">
         <f t="shared" si="9"/>
         <v>103</v>
@@ -15897,7 +15961,7 @@
       <c r="R104" s="106"/>
       <c r="S104" s="106"/>
     </row>
-    <row r="105" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="101">
         <f t="shared" si="9"/>
         <v>104</v>
@@ -15955,7 +16019,7 @@
       <c r="R105" s="106"/>
       <c r="S105" s="106"/>
     </row>
-    <row r="106" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="101">
         <f t="shared" si="9"/>
         <v>105</v>
@@ -16014,7 +16078,7 @@
       </c>
       <c r="S106" s="106"/>
     </row>
-    <row r="107" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="101">
         <f t="shared" si="9"/>
         <v>106</v>
@@ -16071,7 +16135,7 @@
       <c r="R107" s="106"/>
       <c r="S107" s="106"/>
     </row>
-    <row r="108" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="101">
         <f t="shared" si="9"/>
         <v>107</v>
@@ -16128,7 +16192,7 @@
       <c r="R108" s="106"/>
       <c r="S108" s="106"/>
     </row>
-    <row r="109" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="101">
         <f t="shared" si="9"/>
         <v>108</v>
@@ -16186,7 +16250,7 @@
       <c r="R109" s="106"/>
       <c r="S109" s="106"/>
     </row>
-    <row r="110" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="101">
         <f t="shared" si="9"/>
         <v>109</v>
@@ -16247,7 +16311,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="111" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="101">
         <f t="shared" si="9"/>
         <v>110</v>
@@ -16304,7 +16368,7 @@
       <c r="R111" s="106"/>
       <c r="S111" s="106"/>
     </row>
-    <row r="112" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="101">
         <f t="shared" si="9"/>
         <v>111</v>
@@ -16361,7 +16425,7 @@
       <c r="R112" s="106"/>
       <c r="S112" s="106"/>
     </row>
-    <row r="113" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="101">
         <f t="shared" si="9"/>
         <v>112</v>
@@ -16418,7 +16482,7 @@
       <c r="R113" s="106"/>
       <c r="S113" s="106"/>
     </row>
-    <row r="114" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="101">
         <f t="shared" si="9"/>
         <v>113</v>
@@ -16475,7 +16539,7 @@
       <c r="R114" s="106"/>
       <c r="S114" s="106"/>
     </row>
-    <row r="115" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="101">
         <f t="shared" si="9"/>
         <v>114</v>
@@ -16532,7 +16596,7 @@
       <c r="R115" s="106"/>
       <c r="S115" s="106"/>
     </row>
-    <row r="116" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="101">
         <f t="shared" si="9"/>
         <v>115</v>
@@ -16589,7 +16653,7 @@
       <c r="R116" s="106"/>
       <c r="S116" s="106"/>
     </row>
-    <row r="117" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="101">
         <f t="shared" si="9"/>
         <v>116</v>
@@ -16646,7 +16710,7 @@
       <c r="R117" s="106"/>
       <c r="S117" s="106"/>
     </row>
-    <row r="118" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="101">
         <f t="shared" si="9"/>
         <v>117</v>
@@ -16707,7 +16771,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="119" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="101">
         <f t="shared" si="9"/>
         <v>118</v>
@@ -16764,7 +16828,7 @@
       <c r="R119" s="106"/>
       <c r="S119" s="106"/>
     </row>
-    <row r="120" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="101">
         <f t="shared" si="9"/>
         <v>119</v>
@@ -16821,7 +16885,7 @@
       <c r="R120" s="106"/>
       <c r="S120" s="106"/>
     </row>
-    <row r="121" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="101">
         <f t="shared" si="9"/>
         <v>120</v>
@@ -16879,7 +16943,7 @@
       <c r="R121" s="106"/>
       <c r="S121" s="106"/>
     </row>
-    <row r="122" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="101">
         <f t="shared" si="9"/>
         <v>121</v>
@@ -16938,7 +17002,7 @@
       </c>
       <c r="S122" s="106"/>
     </row>
-    <row r="123" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="101">
         <f t="shared" si="9"/>
         <v>122</v>
@@ -16995,7 +17059,7 @@
       <c r="R123" s="106"/>
       <c r="S123" s="106"/>
     </row>
-    <row r="124" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="101">
         <f t="shared" si="9"/>
         <v>123</v>
@@ -17052,7 +17116,7 @@
       <c r="R124" s="106"/>
       <c r="S124" s="106"/>
     </row>
-    <row r="125" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="101">
         <f t="shared" si="9"/>
         <v>124</v>
@@ -17110,7 +17174,7 @@
       <c r="R125" s="106"/>
       <c r="S125" s="106"/>
     </row>
-    <row r="126" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="101">
         <f t="shared" si="9"/>
         <v>125</v>
@@ -17169,7 +17233,7 @@
       </c>
       <c r="S126" s="106"/>
     </row>
-    <row r="127" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="101">
         <f t="shared" ref="A127:A189" si="24">ROW()-1</f>
         <v>126</v>
@@ -17226,7 +17290,7 @@
       <c r="R127" s="106"/>
       <c r="S127" s="106"/>
     </row>
-    <row r="128" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="101">
         <f t="shared" si="24"/>
         <v>127</v>
@@ -17283,7 +17347,7 @@
       <c r="R128" s="106"/>
       <c r="S128" s="106"/>
     </row>
-    <row r="129" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="101">
         <f t="shared" si="24"/>
         <v>128</v>
@@ -17341,7 +17405,7 @@
       <c r="R129" s="106"/>
       <c r="S129" s="106"/>
     </row>
-    <row r="130" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="101">
         <f t="shared" si="24"/>
         <v>129</v>
@@ -17400,7 +17464,7 @@
       </c>
       <c r="S130" s="106"/>
     </row>
-    <row r="131" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="101">
         <f t="shared" si="24"/>
         <v>130</v>
@@ -17457,7 +17521,7 @@
       <c r="R131" s="106"/>
       <c r="S131" s="106"/>
     </row>
-    <row r="132" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="101">
         <f t="shared" si="24"/>
         <v>131</v>
@@ -17514,7 +17578,7 @@
       <c r="R132" s="106"/>
       <c r="S132" s="106"/>
     </row>
-    <row r="133" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="101">
         <f t="shared" si="24"/>
         <v>132</v>
@@ -17572,7 +17636,7 @@
       <c r="R133" s="106"/>
       <c r="S133" s="106"/>
     </row>
-    <row r="134" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="101">
         <f t="shared" si="24"/>
         <v>133</v>
@@ -17631,7 +17695,7 @@
       </c>
       <c r="S134" s="106"/>
     </row>
-    <row r="135" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="101">
         <f t="shared" si="24"/>
         <v>134</v>
@@ -17688,7 +17752,7 @@
       <c r="R135" s="106"/>
       <c r="S135" s="106"/>
     </row>
-    <row r="136" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="101">
         <f t="shared" si="24"/>
         <v>135</v>
@@ -17745,7 +17809,7 @@
       <c r="R136" s="106"/>
       <c r="S136" s="106"/>
     </row>
-    <row r="137" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="101">
         <f t="shared" si="24"/>
         <v>136</v>
@@ -17802,7 +17866,7 @@
       <c r="R137" s="106"/>
       <c r="S137" s="106"/>
     </row>
-    <row r="138" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="101">
         <f t="shared" si="24"/>
         <v>137</v>
@@ -17861,7 +17925,7 @@
       </c>
       <c r="S138" s="106"/>
     </row>
-    <row r="139" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="101">
         <f t="shared" si="24"/>
         <v>138</v>
@@ -17918,7 +17982,7 @@
       <c r="R139" s="106"/>
       <c r="S139" s="106"/>
     </row>
-    <row r="140" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="101">
         <f t="shared" si="24"/>
         <v>139</v>
@@ -17975,7 +18039,7 @@
       <c r="R140" s="106"/>
       <c r="S140" s="106"/>
     </row>
-    <row r="141" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="101">
         <f t="shared" si="24"/>
         <v>140</v>
@@ -18032,7 +18096,7 @@
       <c r="R141" s="106"/>
       <c r="S141" s="106"/>
     </row>
-    <row r="142" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="101">
         <f t="shared" si="24"/>
         <v>141</v>
@@ -18091,7 +18155,7 @@
       </c>
       <c r="S142" s="106"/>
     </row>
-    <row r="143" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="101">
         <f t="shared" si="24"/>
         <v>142</v>
@@ -18148,7 +18212,7 @@
       <c r="R143" s="106"/>
       <c r="S143" s="106"/>
     </row>
-    <row r="144" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="101">
         <f t="shared" si="24"/>
         <v>143</v>
@@ -18205,7 +18269,7 @@
       <c r="R144" s="106"/>
       <c r="S144" s="106"/>
     </row>
-    <row r="145" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="101">
         <f t="shared" si="24"/>
         <v>144</v>
@@ -18262,7 +18326,7 @@
       <c r="R145" s="106"/>
       <c r="S145" s="106"/>
     </row>
-    <row r="146" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="101">
         <f t="shared" si="24"/>
         <v>145</v>
@@ -18321,7 +18385,7 @@
       </c>
       <c r="S146" s="106"/>
     </row>
-    <row r="147" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="101">
         <f t="shared" si="24"/>
         <v>146</v>
@@ -18380,7 +18444,7 @@
       </c>
       <c r="S147" s="106"/>
     </row>
-    <row r="148" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="101">
         <f t="shared" si="24"/>
         <v>147</v>
@@ -18439,7 +18503,7 @@
       </c>
       <c r="S148" s="106"/>
     </row>
-    <row r="149" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="101">
         <f t="shared" si="24"/>
         <v>148</v>
@@ -18498,7 +18562,7 @@
       </c>
       <c r="S149" s="106"/>
     </row>
-    <row r="150" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="101">
         <f t="shared" si="24"/>
         <v>149</v>
@@ -18546,7 +18610,7 @@
         <v>1</v>
       </c>
       <c r="P150" s="111">
-        <f t="shared" ref="P150:P153" si="26">Q150/NORMINV(0.95,0,1)</f>
+        <f t="shared" ref="P150:P151" si="26">Q150/NORMINV(0.95,0,1)</f>
         <v>0.60795683191176941</v>
       </c>
       <c r="Q150" s="94">
@@ -18557,7 +18621,7 @@
       </c>
       <c r="S150" s="106"/>
     </row>
-    <row r="151" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="101">
         <f t="shared" si="24"/>
         <v>150</v>
@@ -18614,7 +18678,7 @@
       <c r="R151" s="106"/>
       <c r="S151" s="106"/>
     </row>
-    <row r="152" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="101">
         <f t="shared" si="24"/>
         <v>151</v>
@@ -18670,7 +18734,7 @@
       <c r="R152" s="106"/>
       <c r="S152" s="106"/>
     </row>
-    <row r="153" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="101">
         <f t="shared" si="24"/>
         <v>152</v>
@@ -18726,7 +18790,7 @@
       <c r="R153" s="106"/>
       <c r="S153" s="106"/>
     </row>
-    <row r="154" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="101">
         <f t="shared" si="24"/>
         <v>153</v>
@@ -18783,7 +18847,7 @@
       <c r="R154" s="106"/>
       <c r="S154" s="106"/>
     </row>
-    <row r="155" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="101">
         <f t="shared" si="24"/>
         <v>154</v>
@@ -18840,7 +18904,7 @@
       <c r="R155" s="106"/>
       <c r="S155" s="106"/>
     </row>
-    <row r="156" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="101">
         <f t="shared" si="24"/>
         <v>155</v>
@@ -18897,7 +18961,7 @@
       <c r="R156" s="106"/>
       <c r="S156" s="106"/>
     </row>
-    <row r="157" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="101">
         <f t="shared" si="24"/>
         <v>156</v>
@@ -18955,7 +19019,7 @@
       <c r="R157" s="106"/>
       <c r="S157" s="106"/>
     </row>
-    <row r="158" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="101">
         <f t="shared" si="24"/>
         <v>157</v>
@@ -19014,7 +19078,7 @@
       </c>
       <c r="S158" s="106"/>
     </row>
-    <row r="159" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="101">
         <f t="shared" si="24"/>
         <v>158</v>
@@ -19071,7 +19135,7 @@
       <c r="R159" s="106"/>
       <c r="S159" s="106"/>
     </row>
-    <row r="160" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="101">
         <f t="shared" si="24"/>
         <v>159</v>
@@ -19128,7 +19192,7 @@
       <c r="R160" s="106"/>
       <c r="S160" s="106"/>
     </row>
-    <row r="161" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="101">
         <f t="shared" si="24"/>
         <v>160</v>
@@ -19185,7 +19249,7 @@
       <c r="R161" s="106"/>
       <c r="S161" s="106"/>
     </row>
-    <row r="162" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="101">
         <f t="shared" si="24"/>
         <v>161</v>
@@ -19244,7 +19308,7 @@
       </c>
       <c r="S162" s="106"/>
     </row>
-    <row r="163" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="101">
         <f t="shared" si="24"/>
         <v>162</v>
@@ -19301,7 +19365,7 @@
       <c r="R163" s="106"/>
       <c r="S163" s="106"/>
     </row>
-    <row r="164" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="101">
         <f t="shared" si="24"/>
         <v>163</v>
@@ -19358,7 +19422,7 @@
       <c r="R164" s="106"/>
       <c r="S164" s="106"/>
     </row>
-    <row r="165" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="101">
         <f t="shared" si="24"/>
         <v>164</v>
@@ -19415,7 +19479,7 @@
       <c r="R165" s="106"/>
       <c r="S165" s="106"/>
     </row>
-    <row r="166" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="101">
         <f t="shared" si="24"/>
         <v>165</v>
@@ -19474,7 +19538,7 @@
       </c>
       <c r="S166" s="106"/>
     </row>
-    <row r="167" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="101">
         <f t="shared" si="24"/>
         <v>166</v>
@@ -19531,7 +19595,7 @@
       <c r="R167" s="106"/>
       <c r="S167" s="106"/>
     </row>
-    <row r="168" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="101">
         <f t="shared" si="24"/>
         <v>167</v>
@@ -19588,7 +19652,7 @@
       <c r="R168" s="106"/>
       <c r="S168" s="106"/>
     </row>
-    <row r="169" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="101">
         <f t="shared" si="24"/>
         <v>168</v>
@@ -19645,7 +19709,7 @@
       <c r="R169" s="106"/>
       <c r="S169" s="106"/>
     </row>
-    <row r="170" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="101">
         <f t="shared" si="24"/>
         <v>169</v>
@@ -19704,7 +19768,7 @@
       </c>
       <c r="S170" s="106"/>
     </row>
-    <row r="171" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="101">
         <f t="shared" si="24"/>
         <v>170</v>
@@ -19761,7 +19825,7 @@
       <c r="R171" s="106"/>
       <c r="S171" s="106"/>
     </row>
-    <row r="172" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="101">
         <f t="shared" si="24"/>
         <v>171</v>
@@ -19818,7 +19882,7 @@
       <c r="R172" s="106"/>
       <c r="S172" s="106"/>
     </row>
-    <row r="173" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="101">
         <f t="shared" si="24"/>
         <v>172</v>
@@ -19875,7 +19939,7 @@
       <c r="R173" s="106"/>
       <c r="S173" s="106"/>
     </row>
-    <row r="174" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="101">
         <f t="shared" si="24"/>
         <v>173</v>
@@ -19934,7 +19998,7 @@
       </c>
       <c r="S174" s="106"/>
     </row>
-    <row r="175" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="101">
         <f t="shared" si="24"/>
         <v>174</v>
@@ -19991,7 +20055,7 @@
       <c r="R175" s="106"/>
       <c r="S175" s="106"/>
     </row>
-    <row r="176" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="101">
         <f t="shared" si="24"/>
         <v>175</v>
@@ -20048,7 +20112,7 @@
       <c r="R176" s="106"/>
       <c r="S176" s="106"/>
     </row>
-    <row r="177" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="101">
         <f t="shared" si="24"/>
         <v>176</v>
@@ -20105,7 +20169,7 @@
       <c r="R177" s="106"/>
       <c r="S177" s="106"/>
     </row>
-    <row r="178" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="101">
         <f t="shared" si="24"/>
         <v>177</v>
@@ -20164,7 +20228,7 @@
       </c>
       <c r="S178" s="106"/>
     </row>
-    <row r="179" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="101">
         <f t="shared" si="24"/>
         <v>178</v>
@@ -20221,7 +20285,7 @@
       <c r="R179" s="106"/>
       <c r="S179" s="106"/>
     </row>
-    <row r="180" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="101">
         <f t="shared" si="24"/>
         <v>179</v>
@@ -20278,7 +20342,7 @@
       <c r="R180" s="106"/>
       <c r="S180" s="106"/>
     </row>
-    <row r="181" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="101">
         <f t="shared" si="24"/>
         <v>180</v>
@@ -20336,7 +20400,7 @@
       <c r="R181" s="106"/>
       <c r="S181" s="106"/>
     </row>
-    <row r="182" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="101">
         <f t="shared" si="24"/>
         <v>181</v>
@@ -20397,7 +20461,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="183" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="101">
         <f t="shared" si="24"/>
         <v>182</v>
@@ -20454,7 +20518,7 @@
       <c r="R183" s="106"/>
       <c r="S183" s="106"/>
     </row>
-    <row r="184" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="101">
         <f t="shared" si="24"/>
         <v>183</v>
@@ -20511,7 +20575,7 @@
       <c r="R184" s="106"/>
       <c r="S184" s="106"/>
     </row>
-    <row r="185" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="101">
         <f t="shared" si="24"/>
         <v>184</v>
@@ -20569,7 +20633,7 @@
       <c r="R185" s="106"/>
       <c r="S185" s="106"/>
     </row>
-    <row r="186" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="101">
         <f t="shared" si="24"/>
         <v>185</v>
@@ -20628,7 +20692,7 @@
       </c>
       <c r="S186" s="106"/>
     </row>
-    <row r="187" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="101">
         <f t="shared" si="24"/>
         <v>186</v>
@@ -20685,7 +20749,7 @@
       <c r="R187" s="106"/>
       <c r="S187" s="106"/>
     </row>
-    <row r="188" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="101">
         <f t="shared" si="24"/>
         <v>187</v>
@@ -20742,7 +20806,7 @@
       <c r="R188" s="106"/>
       <c r="S188" s="106"/>
     </row>
-    <row r="189" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="101">
         <f t="shared" si="24"/>
         <v>188</v>
@@ -20800,7 +20864,7 @@
       <c r="R189" s="106"/>
       <c r="S189" s="106"/>
     </row>
-    <row r="190" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="101"/>
       <c r="B190" s="157"/>
       <c r="C190" s="134"/>
@@ -20821,7 +20885,7 @@
       <c r="R190" s="106"/>
       <c r="S190" s="106"/>
     </row>
-    <row r="191" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="101"/>
       <c r="B191" s="157"/>
       <c r="C191" s="131"/>
@@ -20842,7 +20906,7 @@
       <c r="R191" s="106"/>
       <c r="S191" s="106"/>
     </row>
-    <row r="192" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="101"/>
       <c r="B192" s="157"/>
       <c r="C192" s="132"/>
@@ -20863,7 +20927,7 @@
       <c r="R192" s="106"/>
       <c r="S192" s="106"/>
     </row>
-    <row r="193" spans="1:19" s="100" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" s="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="101"/>
       <c r="B193" s="157"/>
       <c r="C193" s="133"/>
@@ -21450,7 +21514,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B189" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B189">
       <formula1>ComponentTypeList</formula1>
     </dataValidation>
   </dataValidations>
@@ -21460,7 +21524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF6565"/>
   </sheetPr>
@@ -21471,16 +21535,16 @@
       <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" style="61" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="61" customWidth="1"/>
-    <col min="3" max="3" width="99.1640625" style="64" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" style="61" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="61"/>
+    <col min="1" max="1" width="35.125" style="61" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="61" customWidth="1"/>
+    <col min="3" max="3" width="99.125" style="64" customWidth="1"/>
+    <col min="4" max="4" width="44.625" style="61" customWidth="1"/>
+    <col min="5" max="16384" width="10.875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="158" t="s">
         <v>0</v>
       </c>
@@ -21491,7 +21555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>58</v>
       </c>
@@ -21502,7 +21566,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>58</v>
       </c>
@@ -21513,7 +21577,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>58</v>
       </c>
@@ -21524,7 +21588,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>58</v>
       </c>
@@ -21535,7 +21599,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>131</v>
       </c>
@@ -21546,7 +21610,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>131</v>
       </c>
@@ -21557,7 +21621,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>131</v>
       </c>
@@ -21568,7 +21632,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>131</v>
       </c>
@@ -21579,7 +21643,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
@@ -21590,7 +21654,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
@@ -21601,7 +21665,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>9</v>
       </c>
@@ -21612,7 +21676,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
@@ -21623,7 +21687,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>200</v>
       </c>
@@ -21634,7 +21698,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>200</v>
       </c>
@@ -21645,7 +21709,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>200</v>
       </c>
@@ -21656,7 +21720,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>200</v>
       </c>
@@ -21667,7 +21731,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>249</v>
       </c>
@@ -21678,7 +21742,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>249</v>
       </c>
@@ -21689,7 +21753,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>249</v>
       </c>
@@ -21700,7 +21764,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>249</v>
       </c>
@@ -21711,7 +21775,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>259</v>
       </c>
@@ -21722,7 +21786,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>259</v>
       </c>
@@ -21733,7 +21797,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>259</v>
       </c>
@@ -21744,7 +21808,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>259</v>
       </c>
@@ -21755,7 +21819,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>180</v>
       </c>
@@ -21766,7 +21830,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>180</v>
       </c>
@@ -21777,7 +21841,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>180</v>
       </c>
@@ -21788,7 +21852,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>180</v>
       </c>
@@ -21799,7 +21863,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>172</v>
       </c>
@@ -21810,7 +21874,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>172</v>
       </c>
@@ -21821,7 +21885,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>172</v>
       </c>
@@ -21832,7 +21896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>172</v>
       </c>
@@ -21843,7 +21907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>63</v>
       </c>
@@ -21854,7 +21918,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>63</v>
       </c>
@@ -21865,7 +21929,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>63</v>
       </c>
@@ -21876,7 +21940,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>63</v>
       </c>
@@ -21887,7 +21951,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>170</v>
       </c>
@@ -21896,7 +21960,7 @@
       </c>
       <c r="C38" s="58"/>
     </row>
-    <row r="39" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>170</v>
       </c>
@@ -21905,7 +21969,7 @@
       </c>
       <c r="C39" s="59"/>
     </row>
-    <row r="40" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>170</v>
       </c>
@@ -21914,7 +21978,7 @@
       </c>
       <c r="C40" s="59"/>
     </row>
-    <row r="41" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>170</v>
       </c>
@@ -21923,7 +21987,7 @@
       </c>
       <c r="C41" s="60"/>
     </row>
-    <row r="42" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>178</v>
       </c>
@@ -21932,7 +21996,7 @@
       </c>
       <c r="C42" s="58"/>
     </row>
-    <row r="43" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>178</v>
       </c>
@@ -21941,7 +22005,7 @@
       </c>
       <c r="C43" s="59"/>
     </row>
-    <row r="44" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>178</v>
       </c>
@@ -21950,7 +22014,7 @@
       </c>
       <c r="C44" s="59"/>
     </row>
-    <row r="45" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>178</v>
       </c>
@@ -21959,7 +22023,7 @@
       </c>
       <c r="C45" s="59"/>
     </row>
-    <row r="46" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>171</v>
       </c>
@@ -21968,7 +22032,7 @@
       </c>
       <c r="C46" s="58"/>
     </row>
-    <row r="47" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>171</v>
       </c>
@@ -21977,7 +22041,7 @@
       </c>
       <c r="C47" s="59"/>
     </row>
-    <row r="48" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>171</v>
       </c>
@@ -21986,7 +22050,7 @@
       </c>
       <c r="C48" s="59"/>
     </row>
-    <row r="49" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>171</v>
       </c>
@@ -21995,7 +22059,7 @@
       </c>
       <c r="C49" s="59"/>
     </row>
-    <row r="50" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>43</v>
       </c>
@@ -22004,7 +22068,7 @@
       </c>
       <c r="C50" s="58"/>
     </row>
-    <row r="51" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>43</v>
       </c>
@@ -22013,7 +22077,7 @@
       </c>
       <c r="C51" s="59"/>
     </row>
-    <row r="52" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>43</v>
       </c>
@@ -22022,7 +22086,7 @@
       </c>
       <c r="C52" s="59"/>
     </row>
-    <row r="53" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>43</v>
       </c>
@@ -22031,7 +22095,7 @@
       </c>
       <c r="C53" s="59"/>
     </row>
-    <row r="54" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>219</v>
       </c>
@@ -22040,7 +22104,7 @@
       </c>
       <c r="C54" s="58"/>
     </row>
-    <row r="55" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>219</v>
       </c>
@@ -22049,7 +22113,7 @@
       </c>
       <c r="C55" s="59"/>
     </row>
-    <row r="56" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>219</v>
       </c>
@@ -22058,7 +22122,7 @@
       </c>
       <c r="C56" s="59"/>
     </row>
-    <row r="57" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>219</v>
       </c>
@@ -22067,7 +22131,7 @@
       </c>
       <c r="C57" s="59"/>
     </row>
-    <row r="58" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>294</v>
       </c>
@@ -22076,7 +22140,7 @@
       </c>
       <c r="C58" s="58"/>
     </row>
-    <row r="59" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>294</v>
       </c>
@@ -22085,7 +22149,7 @@
       </c>
       <c r="C59" s="59"/>
     </row>
-    <row r="60" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>294</v>
       </c>
@@ -22094,7 +22158,7 @@
       </c>
       <c r="C60" s="59"/>
     </row>
-    <row r="61" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>294</v>
       </c>
@@ -22103,7 +22167,7 @@
       </c>
       <c r="C61" s="59"/>
     </row>
-    <row r="62" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>110</v>
       </c>
@@ -22112,7 +22176,7 @@
       </c>
       <c r="C62" s="58"/>
     </row>
-    <row r="63" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>110</v>
       </c>
@@ -22121,7 +22185,7 @@
       </c>
       <c r="C63" s="59"/>
     </row>
-    <row r="64" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>110</v>
       </c>
@@ -22130,7 +22194,7 @@
       </c>
       <c r="C64" s="59"/>
     </row>
-    <row r="65" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>110</v>
       </c>
@@ -22139,7 +22203,7 @@
       </c>
       <c r="C65" s="59"/>
     </row>
-    <row r="66" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>107</v>
       </c>
@@ -22148,7 +22212,7 @@
       </c>
       <c r="C66" s="58"/>
     </row>
-    <row r="67" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>107</v>
       </c>
@@ -22157,7 +22221,7 @@
       </c>
       <c r="C67" s="59"/>
     </row>
-    <row r="68" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>107</v>
       </c>
@@ -22166,7 +22230,7 @@
       </c>
       <c r="C68" s="59"/>
     </row>
-    <row r="69" spans="1:3" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>107</v>
       </c>
@@ -22175,7 +22239,7 @@
       </c>
       <c r="C69" s="59"/>
     </row>
-    <row r="70" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>238</v>
       </c>
@@ -22184,7 +22248,7 @@
       </c>
       <c r="C70" s="58"/>
     </row>
-    <row r="71" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>238</v>
       </c>
@@ -22193,7 +22257,7 @@
       </c>
       <c r="C71" s="59"/>
     </row>
-    <row r="72" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>238</v>
       </c>
@@ -22202,7 +22266,7 @@
       </c>
       <c r="C72" s="59"/>
     </row>
-    <row r="73" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>238</v>
       </c>
@@ -22211,7 +22275,7 @@
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>235</v>
       </c>
@@ -22220,7 +22284,7 @@
       </c>
       <c r="C74" s="58"/>
     </row>
-    <row r="75" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>235</v>
       </c>
@@ -22229,7 +22293,7 @@
       </c>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>235</v>
       </c>
@@ -22238,7 +22302,7 @@
       </c>
       <c r="C76" s="59"/>
     </row>
-    <row r="77" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>235</v>
       </c>
@@ -22247,7 +22311,7 @@
       </c>
       <c r="C77" s="59"/>
     </row>
-    <row r="78" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>236</v>
       </c>
@@ -22256,7 +22320,7 @@
       </c>
       <c r="C78" s="58"/>
     </row>
-    <row r="79" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
         <v>236</v>
       </c>
@@ -22265,7 +22329,7 @@
       </c>
       <c r="C79" s="59"/>
     </row>
-    <row r="80" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>236</v>
       </c>
@@ -22274,7 +22338,7 @@
       </c>
       <c r="C80" s="59"/>
     </row>
-    <row r="81" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>236</v>
       </c>
@@ -22283,7 +22347,7 @@
       </c>
       <c r="C81" s="59"/>
     </row>
-    <row r="82" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>112</v>
       </c>
@@ -22292,7 +22356,7 @@
       </c>
       <c r="C82" s="58"/>
     </row>
-    <row r="83" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
         <v>112</v>
       </c>
@@ -22301,7 +22365,7 @@
       </c>
       <c r="C83" s="59"/>
     </row>
-    <row r="84" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>112</v>
       </c>
@@ -22310,7 +22374,7 @@
       </c>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>112</v>
       </c>
@@ -22319,7 +22383,7 @@
       </c>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>109</v>
       </c>
@@ -22328,7 +22392,7 @@
       </c>
       <c r="C86" s="58"/>
     </row>
-    <row r="87" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>109</v>
       </c>
@@ -22337,7 +22401,7 @@
       </c>
       <c r="C87" s="59"/>
     </row>
-    <row r="88" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>109</v>
       </c>
@@ -22346,7 +22410,7 @@
       </c>
       <c r="C88" s="59"/>
     </row>
-    <row r="89" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>109</v>
       </c>
@@ -22355,7 +22419,7 @@
       </c>
       <c r="C89" s="59"/>
     </row>
-    <row r="90" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>237</v>
       </c>
@@ -22364,7 +22428,7 @@
       </c>
       <c r="C90" s="58"/>
     </row>
-    <row r="91" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>237</v>
       </c>
@@ -22373,7 +22437,7 @@
       </c>
       <c r="C91" s="59"/>
     </row>
-    <row r="92" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>237</v>
       </c>
@@ -22382,7 +22446,7 @@
       </c>
       <c r="C92" s="59"/>
     </row>
-    <row r="93" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>237</v>
       </c>
@@ -22391,7 +22455,7 @@
       </c>
       <c r="C93" s="59"/>
     </row>
-    <row r="94" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>234</v>
       </c>
@@ -22400,7 +22464,7 @@
       </c>
       <c r="C94" s="58"/>
     </row>
-    <row r="95" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
         <v>234</v>
       </c>
@@ -22409,7 +22473,7 @@
       </c>
       <c r="C95" s="59"/>
     </row>
-    <row r="96" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>234</v>
       </c>
@@ -22418,7 +22482,7 @@
       </c>
       <c r="C96" s="59"/>
     </row>
-    <row r="97" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>234</v>
       </c>
@@ -22427,7 +22491,7 @@
       </c>
       <c r="C97" s="59"/>
     </row>
-    <row r="98" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>286</v>
       </c>
@@ -22438,7 +22502,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>286</v>
       </c>
@@ -22449,7 +22513,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>286</v>
       </c>
@@ -22460,7 +22524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
         <v>286</v>
       </c>
@@ -22471,7 +22535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>256</v>
       </c>
@@ -22482,7 +22546,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
         <v>256</v>
       </c>
@@ -22493,7 +22557,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="104" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>256</v>
       </c>
@@ -22504,7 +22568,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="105" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>256</v>
       </c>
@@ -22515,7 +22579,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="106" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="155" t="s">
         <v>239</v>
       </c>
@@ -22524,7 +22588,7 @@
       </c>
       <c r="C106" s="58"/>
     </row>
-    <row r="107" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="156" t="s">
         <v>239</v>
       </c>
@@ -22533,7 +22597,7 @@
       </c>
       <c r="C107" s="59"/>
     </row>
-    <row r="108" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="156" t="s">
         <v>239</v>
       </c>
@@ -22542,7 +22606,7 @@
       </c>
       <c r="C108" s="59"/>
     </row>
-    <row r="109" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="156" t="s">
         <v>239</v>
       </c>
@@ -22551,7 +22615,7 @@
       </c>
       <c r="C109" s="59"/>
     </row>
-    <row r="110" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>241</v>
       </c>
@@ -22560,7 +22624,7 @@
       </c>
       <c r="C110" s="58"/>
     </row>
-    <row r="111" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
         <v>241</v>
       </c>
@@ -22569,7 +22633,7 @@
       </c>
       <c r="C111" s="59"/>
     </row>
-    <row r="112" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>241</v>
       </c>
@@ -22578,7 +22642,7 @@
       </c>
       <c r="C112" s="59"/>
     </row>
-    <row r="113" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
         <v>241</v>
       </c>
@@ -22587,7 +22651,7 @@
       </c>
       <c r="C113" s="59"/>
     </row>
-    <row r="114" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>242</v>
       </c>
@@ -22596,7 +22660,7 @@
       </c>
       <c r="C114" s="58"/>
     </row>
-    <row r="115" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
         <v>242</v>
       </c>
@@ -22605,7 +22669,7 @@
       </c>
       <c r="C115" s="59"/>
     </row>
-    <row r="116" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
         <v>242</v>
       </c>
@@ -22614,7 +22678,7 @@
       </c>
       <c r="C116" s="59"/>
     </row>
-    <row r="117" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
         <v>242</v>
       </c>
@@ -22623,7 +22687,7 @@
       </c>
       <c r="C117" s="59"/>
     </row>
-    <row r="118" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>142</v>
       </c>
@@ -22634,7 +22698,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="119" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>142</v>
       </c>
@@ -22645,7 +22709,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="120" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>142</v>
       </c>
@@ -22656,7 +22720,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="121" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
         <v>142</v>
       </c>
@@ -22667,7 +22731,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="122" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>257</v>
       </c>
@@ -22678,7 +22742,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="123" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>257</v>
       </c>
@@ -22689,7 +22753,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="124" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
         <v>257</v>
       </c>
@@ -22700,7 +22764,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="125" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
         <v>257</v>
       </c>
@@ -22711,7 +22775,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="126" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>281</v>
       </c>
@@ -22722,7 +22786,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="127" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
         <v>281</v>
       </c>
@@ -22733,7 +22797,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="128" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
         <v>281</v>
       </c>
@@ -22744,7 +22808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
         <v>281</v>
       </c>
@@ -22755,7 +22819,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="130" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>320</v>
       </c>
@@ -22766,7 +22830,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="131" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
         <v>320</v>
       </c>
@@ -22777,7 +22841,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="132" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
         <v>320</v>
       </c>
@@ -22788,7 +22852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
         <v>320</v>
       </c>
@@ -22799,7 +22863,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>245</v>
       </c>
@@ -22810,7 +22874,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="135" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
         <v>245</v>
       </c>
@@ -22821,7 +22885,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="136" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
         <v>245</v>
       </c>
@@ -22832,7 +22896,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
         <v>245</v>
       </c>
@@ -22843,7 +22907,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="165" t="s">
         <v>155</v>
       </c>
@@ -22854,7 +22918,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="139" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="166" t="s">
         <v>155</v>
       </c>
@@ -22865,7 +22929,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="166" t="s">
         <v>155</v>
       </c>
@@ -22876,7 +22940,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="141" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="166" t="s">
         <v>155</v>
       </c>
@@ -22887,7 +22951,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="142" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="155" t="s">
         <v>246</v>
       </c>
@@ -22896,7 +22960,7 @@
       </c>
       <c r="C142" s="58"/>
     </row>
-    <row r="143" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="156" t="s">
         <v>246</v>
       </c>
@@ -22905,7 +22969,7 @@
       </c>
       <c r="C143" s="59"/>
     </row>
-    <row r="144" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="156" t="s">
         <v>246</v>
       </c>
@@ -22914,7 +22978,7 @@
       </c>
       <c r="C144" s="59"/>
     </row>
-    <row r="145" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="156" t="s">
         <v>246</v>
       </c>
@@ -22923,7 +22987,7 @@
       </c>
       <c r="C145" s="59"/>
     </row>
-    <row r="146" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="155" t="s">
         <v>247</v>
       </c>
@@ -22932,7 +22996,7 @@
       </c>
       <c r="C146" s="58"/>
     </row>
-    <row r="147" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="156" t="s">
         <v>247</v>
       </c>
@@ -22941,7 +23005,7 @@
       </c>
       <c r="C147" s="59"/>
     </row>
-    <row r="148" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="156" t="s">
         <v>247</v>
       </c>
@@ -22950,7 +23014,7 @@
       </c>
       <c r="C148" s="59"/>
     </row>
-    <row r="149" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="156" t="s">
         <v>247</v>
       </c>
@@ -22959,7 +23023,7 @@
       </c>
       <c r="C149" s="59"/>
     </row>
-    <row r="150" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="155" t="s">
         <v>329</v>
       </c>
@@ -22970,7 +23034,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="151" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="156" t="s">
         <v>329</v>
       </c>
@@ -22981,7 +23045,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="152" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="156" t="s">
         <v>329</v>
       </c>
@@ -22992,7 +23056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="156" t="s">
         <v>329</v>
       </c>
@@ -23003,7 +23067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
         <v>106</v>
       </c>
@@ -23012,7 +23076,7 @@
       </c>
       <c r="C154" s="58"/>
     </row>
-    <row r="155" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
         <v>106</v>
       </c>
@@ -23021,7 +23085,7 @@
       </c>
       <c r="C155" s="59"/>
     </row>
-    <row r="156" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
         <v>106</v>
       </c>
@@ -23030,7 +23094,7 @@
       </c>
       <c r="C156" s="59"/>
     </row>
-    <row r="157" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
         <v>106</v>
       </c>
@@ -23039,7 +23103,7 @@
       </c>
       <c r="C157" s="59"/>
     </row>
-    <row r="158" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
         <v>145</v>
       </c>
@@ -23048,7 +23112,7 @@
       </c>
       <c r="C158" s="58"/>
     </row>
-    <row r="159" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
         <v>145</v>
       </c>
@@ -23057,7 +23121,7 @@
       </c>
       <c r="C159" s="59"/>
     </row>
-    <row r="160" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
         <v>145</v>
       </c>
@@ -23066,7 +23130,7 @@
       </c>
       <c r="C160" s="59"/>
     </row>
-    <row r="161" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
         <v>145</v>
       </c>
@@ -23075,7 +23139,7 @@
       </c>
       <c r="C161" s="59"/>
     </row>
-    <row r="162" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
         <v>146</v>
       </c>
@@ -23084,7 +23148,7 @@
       </c>
       <c r="C162" s="58"/>
     </row>
-    <row r="163" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
         <v>146</v>
       </c>
@@ -23093,7 +23157,7 @@
       </c>
       <c r="C163" s="59"/>
     </row>
-    <row r="164" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
         <v>146</v>
       </c>
@@ -23102,7 +23166,7 @@
       </c>
       <c r="C164" s="59"/>
     </row>
-    <row r="165" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="14" t="s">
         <v>146</v>
       </c>
@@ -23111,7 +23175,7 @@
       </c>
       <c r="C165" s="59"/>
     </row>
-    <row r="166" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
         <v>143</v>
       </c>
@@ -23122,7 +23186,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="s">
         <v>143</v>
       </c>
@@ -23133,7 +23197,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="168" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="14" t="s">
         <v>143</v>
       </c>
@@ -23144,7 +23208,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="169" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="s">
         <v>143</v>
       </c>
@@ -23155,7 +23219,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="170" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
         <v>271</v>
       </c>
@@ -23166,7 +23230,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="171" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
         <v>271</v>
       </c>
@@ -23177,7 +23241,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="172" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
         <v>271</v>
       </c>
@@ -23188,7 +23252,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="173" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="14" t="s">
         <v>271</v>
       </c>
@@ -23199,7 +23263,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="174" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
         <v>157</v>
       </c>
@@ -23208,7 +23272,7 @@
       </c>
       <c r="C174" s="58"/>
     </row>
-    <row r="175" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
         <v>157</v>
       </c>
@@ -23217,7 +23281,7 @@
       </c>
       <c r="C175" s="59"/>
     </row>
-    <row r="176" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
         <v>157</v>
       </c>
@@ -23226,7 +23290,7 @@
       </c>
       <c r="C176" s="59"/>
     </row>
-    <row r="177" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
         <v>157</v>
       </c>
@@ -23235,7 +23299,7 @@
       </c>
       <c r="C177" s="59"/>
     </row>
-    <row r="178" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
         <v>62</v>
       </c>
@@ -23244,7 +23308,7 @@
       </c>
       <c r="C178" s="58"/>
     </row>
-    <row r="179" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="14" t="s">
         <v>62</v>
       </c>
@@ -23253,7 +23317,7 @@
       </c>
       <c r="C179" s="59"/>
     </row>
-    <row r="180" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
         <v>62</v>
       </c>
@@ -23262,7 +23326,7 @@
       </c>
       <c r="C180" s="59"/>
     </row>
-    <row r="181" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
         <v>62</v>
       </c>
@@ -23271,7 +23335,7 @@
       </c>
       <c r="C181" s="59"/>
     </row>
-    <row r="182" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="s">
         <v>311</v>
       </c>
@@ -23280,7 +23344,7 @@
       </c>
       <c r="C182" s="58"/>
     </row>
-    <row r="183" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
         <v>311</v>
       </c>
@@ -23289,7 +23353,7 @@
       </c>
       <c r="C183" s="59"/>
     </row>
-    <row r="184" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="14" t="s">
         <v>311</v>
       </c>
@@ -23298,7 +23362,7 @@
       </c>
       <c r="C184" s="59"/>
     </row>
-    <row r="185" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
         <v>311</v>
       </c>
@@ -23307,7 +23371,7 @@
       </c>
       <c r="C185" s="59"/>
     </row>
-    <row r="186" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="s">
         <v>312</v>
       </c>
@@ -23316,7 +23380,7 @@
       </c>
       <c r="C186" s="58"/>
     </row>
-    <row r="187" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
         <v>312</v>
       </c>
@@ -23325,7 +23389,7 @@
       </c>
       <c r="C187" s="59"/>
     </row>
-    <row r="188" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
         <v>312</v>
       </c>
@@ -23334,7 +23398,7 @@
       </c>
       <c r="C188" s="59"/>
     </row>
-    <row r="189" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="15" t="s">
         <v>312</v>
       </c>
@@ -23345,7 +23409,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A177" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A177">
       <formula1>ComponentTypeList</formula1>
     </dataValidation>
   </dataValidations>
@@ -23355,21 +23419,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17573E8-F3C1-6548-9B31-C2FFAA8AE886}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="30.83203125" style="1" customWidth="1"/>
+    <col min="1" max="4" width="30.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="168" t="s">
         <v>333</v>
       </c>
@@ -23383,7 +23447,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>337</v>
       </c>
@@ -23398,7 +23462,7 @@
       </c>
       <c r="E2" s="169"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>341</v>
       </c>
@@ -23412,7 +23476,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>345</v>
       </c>
@@ -23420,7 +23484,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>347</v>
       </c>
@@ -23428,12 +23492,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>350</v>
       </c>

--- a/testing/pwtp_wa_anon_model.xlsx
+++ b/testing/pwtp_wa_anon_model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" tabRatio="788" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" tabRatio="788" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="system_meta" sheetId="17" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Tanks" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">component_connections!$A$1:$E$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">component_connections!$A$1:$E$107</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">component_list!$A$1:$I$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">excluded_components!#REF!</definedName>
     <definedName name="COMPONENT_LOCATION_CONF">OFFSET(VALIDATION_TABLES!$D$2,0,0,COUNTA(VALIDATION_TABLES!$D$2:$D$201),1)</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="403">
   <si>
     <t>component_type</t>
   </si>
@@ -4447,7 +4447,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5774,9 +5774,9 @@
   </sheetPr>
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5964,7 +5964,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="4">
-        <v>460</v>
+        <v>780</v>
       </c>
       <c r="I6" s="4">
         <v>895</v>
@@ -7969,11 +7969,11 @@
   <sheetPr>
     <tabColor rgb="FF66CCFF"/>
   </sheetPr>
-  <dimension ref="A1:E177"/>
+  <dimension ref="A1:E176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78:D81"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8290,7 +8290,7 @@
         <v>204</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C22" s="38">
         <v>1</v>
@@ -8303,8 +8303,8 @@
       <c r="A23" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>381</v>
+      <c r="B23" s="128" t="s">
+        <v>163</v>
       </c>
       <c r="C23" s="38">
         <v>1</v>
@@ -8318,7 +8318,7 @@
         <v>204</v>
       </c>
       <c r="B24" s="128" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C24" s="38">
         <v>1</v>
@@ -8328,25 +8328,28 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="125" t="s">
         <v>204</v>
       </c>
-      <c r="B25" s="128" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="38">
-        <v>1</v>
-      </c>
-      <c r="D25" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="125" t="s">
+        <v>400</v>
+      </c>
+      <c r="C25" s="126">
+        <v>1</v>
+      </c>
+      <c r="D25" s="127">
+        <v>1</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="125" t="s">
-        <v>204</v>
+        <v>400</v>
       </c>
       <c r="B26" s="125" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C26" s="126">
         <v>1</v>
@@ -8354,44 +8357,41 @@
       <c r="D26" s="127">
         <v>1</v>
       </c>
-      <c r="E26" s="65" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="125" t="s">
-        <v>400</v>
-      </c>
-      <c r="B27" s="125" t="s">
-        <v>395</v>
-      </c>
-      <c r="C27" s="126">
-        <v>1</v>
-      </c>
-      <c r="D27" s="127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B27" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="C28" s="47">
-        <v>1</v>
-      </c>
-      <c r="D28" s="48">
+      <c r="C27" s="47">
+        <v>1</v>
+      </c>
+      <c r="D27" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="38">
+        <v>1</v>
+      </c>
+      <c r="D28" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C29" s="38">
         <v>1</v>
@@ -8402,10 +8402,10 @@
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>135</v>
+        <v>392</v>
       </c>
       <c r="C30" s="38">
         <v>1</v>
@@ -8416,10 +8416,10 @@
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="2" t="s">
         <v>392</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>138</v>
       </c>
       <c r="C31" s="38">
         <v>1</v>
@@ -8430,10 +8430,10 @@
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B32" s="32" t="s">
         <v>138</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>390</v>
       </c>
       <c r="C32" s="38">
         <v>1</v>
@@ -8444,10 +8444,10 @@
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>138</v>
+        <v>376</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>390</v>
+        <v>194</v>
       </c>
       <c r="C33" s="38">
         <v>1</v>
@@ -8461,7 +8461,7 @@
         <v>376</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C34" s="38">
         <v>1</v>
@@ -8475,10 +8475,10 @@
         <v>376</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C35" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" s="39">
         <v>1</v>
@@ -8489,7 +8489,7 @@
         <v>376</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C36" s="38">
         <v>2</v>
@@ -8503,7 +8503,7 @@
         <v>376</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C37" s="38">
         <v>2</v>
@@ -8516,8 +8516,8 @@
       <c r="A38" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B38" s="31" t="s">
-        <v>198</v>
+      <c r="B38" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="C38" s="38">
         <v>2</v>
@@ -8527,14 +8527,14 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>376</v>
+      <c r="A39" s="31" t="s">
+        <v>194</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="C39" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="39">
         <v>1</v>
@@ -8542,7 +8542,7 @@
     </row>
     <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>220</v>
@@ -8556,13 +8556,13 @@
     </row>
     <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C41" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" s="39">
         <v>1</v>
@@ -8570,7 +8570,7 @@
     </row>
     <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>220</v>
@@ -8584,7 +8584,7 @@
     </row>
     <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>220</v>
@@ -8597,8 +8597,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
-        <v>198</v>
+      <c r="A44" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>220</v>
@@ -8612,13 +8612,13 @@
     </row>
     <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>199</v>
+        <v>377</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="C45" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" s="39">
         <v>1</v>
@@ -8629,49 +8629,49 @@
         <v>377</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" s="38">
+        <v>1</v>
+      </c>
+      <c r="D46" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C46" s="38">
-        <v>1</v>
-      </c>
-      <c r="D46" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C47" s="38">
-        <v>1</v>
-      </c>
-      <c r="D47" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="40">
+        <v>1</v>
+      </c>
+      <c r="D47" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" s="40">
-        <v>1</v>
-      </c>
-      <c r="D48" s="41">
+        <v>165</v>
+      </c>
+      <c r="C48" s="38">
+        <v>1</v>
+      </c>
+      <c r="D48" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>165</v>
+        <v>390</v>
       </c>
       <c r="C49" s="38">
         <v>1</v>
@@ -8681,22 +8681,25 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="C50" s="38">
-        <v>1</v>
-      </c>
-      <c r="D50" s="39">
-        <v>1</v>
+      <c r="C50" s="42">
+        <v>1</v>
+      </c>
+      <c r="D50" s="43">
+        <v>1</v>
+      </c>
+      <c r="E50" s="65" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B51" s="22" t="s">
         <v>390</v>
@@ -8707,58 +8710,55 @@
       <c r="D51" s="43">
         <v>1</v>
       </c>
-      <c r="E51" s="65" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="B52" s="22" t="s">
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34" t="s">
         <v>390</v>
       </c>
-      <c r="C52" s="42">
-        <v>1</v>
-      </c>
-      <c r="D52" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="B53" s="34" t="s">
+      <c r="B52" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="44">
-        <v>1</v>
-      </c>
-      <c r="D53" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="46" t="s">
+      <c r="C52" s="44">
+        <v>1</v>
+      </c>
+      <c r="D52" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B53" s="46" t="s">
         <v>391</v>
       </c>
-      <c r="C54" s="47">
-        <v>1</v>
-      </c>
-      <c r="D54" s="48">
+      <c r="C53" s="47">
+        <v>1</v>
+      </c>
+      <c r="D53" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C54" s="38">
+        <v>1</v>
+      </c>
+      <c r="D54" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C55" s="38">
         <v>1</v>
@@ -8769,10 +8769,10 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>391</v>
+        <v>140</v>
       </c>
       <c r="C56" s="38">
         <v>1</v>
@@ -8783,10 +8783,10 @@
     </row>
     <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>391</v>
+        <v>140</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>140</v>
+        <v>394</v>
       </c>
       <c r="C57" s="38">
         <v>1</v>
@@ -8794,13 +8794,16 @@
       <c r="D57" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E57" s="65" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>140</v>
+        <v>394</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="C58" s="38">
         <v>1</v>
@@ -8808,44 +8811,41 @@
       <c r="D58" s="39">
         <v>1</v>
       </c>
-      <c r="E58" s="65" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C59" s="38">
-        <v>1</v>
-      </c>
-      <c r="D59" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="46" t="s">
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="B60" s="46" t="s">
+      <c r="B59" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="C60" s="47">
-        <v>1</v>
-      </c>
-      <c r="D60" s="48">
+      <c r="C59" s="47">
+        <v>1</v>
+      </c>
+      <c r="D59" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C60" s="38">
+        <v>1</v>
+      </c>
+      <c r="D60" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>137</v>
+        <v>378</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="C61" s="38">
         <v>1</v>
@@ -8856,10 +8856,10 @@
     </row>
     <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="C62" s="38">
         <v>1</v>
@@ -8868,12 +8868,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>381</v>
+        <v>132</v>
       </c>
       <c r="C63" s="38">
         <v>1</v>
@@ -8882,31 +8882,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B64" s="2" t="s">
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="C64" s="38">
-        <v>1</v>
-      </c>
-      <c r="D64" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" s="46" t="s">
+      <c r="B64" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="C65" s="47">
-        <v>1</v>
-      </c>
-      <c r="D65" s="48">
+      <c r="C64" s="47">
+        <v>1</v>
+      </c>
+      <c r="D64" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C65" s="38">
+        <v>1</v>
+      </c>
+      <c r="D65" s="39">
         <v>1</v>
       </c>
     </row>
@@ -8915,7 +8915,7 @@
         <v>133</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C66" s="38">
         <v>1</v>
@@ -8925,11 +8925,11 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>397</v>
+      <c r="A67" s="178" t="s">
+        <v>380</v>
+      </c>
+      <c r="B67" s="178" t="s">
+        <v>173</v>
       </c>
       <c r="C67" s="38">
         <v>1</v>
@@ -8943,7 +8943,7 @@
         <v>380</v>
       </c>
       <c r="B68" s="178" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C68" s="38">
         <v>1</v>
@@ -8957,7 +8957,7 @@
         <v>380</v>
       </c>
       <c r="B69" s="178" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C69" s="38">
         <v>1</v>
@@ -8971,7 +8971,7 @@
         <v>380</v>
       </c>
       <c r="B70" s="178" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C70" s="38">
         <v>1</v>
@@ -8985,7 +8985,7 @@
         <v>380</v>
       </c>
       <c r="B71" s="178" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C71" s="38">
         <v>1</v>
@@ -8999,7 +8999,7 @@
         <v>380</v>
       </c>
       <c r="B72" s="178" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C72" s="38">
         <v>1</v>
@@ -9010,16 +9010,19 @@
     </row>
     <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="178" t="s">
-        <v>380</v>
+        <v>173</v>
       </c>
       <c r="B73" s="178" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C73" s="38">
         <v>1</v>
       </c>
       <c r="D73" s="39">
         <v>1</v>
+      </c>
+      <c r="E73" s="54" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9027,30 +9030,30 @@
         <v>173</v>
       </c>
       <c r="B74" s="178" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C74" s="38">
         <v>1</v>
       </c>
       <c r="D74" s="39">
         <v>1</v>
-      </c>
-      <c r="E74" s="54" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="178" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B75" s="178" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C75" s="38">
         <v>1</v>
       </c>
       <c r="D75" s="39">
         <v>1</v>
+      </c>
+      <c r="E75" s="54" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9058,24 +9061,21 @@
         <v>163</v>
       </c>
       <c r="B76" s="178" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C76" s="38">
         <v>1</v>
       </c>
       <c r="D76" s="39">
         <v>1</v>
-      </c>
-      <c r="E76" s="54" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="178" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B77" s="178" t="s">
-        <v>177</v>
+        <v>362</v>
       </c>
       <c r="C77" s="38">
         <v>1</v>
@@ -9086,7 +9086,7 @@
     </row>
     <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="178" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B78" s="178" t="s">
         <v>362</v>
@@ -9100,7 +9100,7 @@
     </row>
     <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="178" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B79" s="178" t="s">
         <v>362</v>
@@ -9114,7 +9114,7 @@
     </row>
     <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="178" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B80" s="178" t="s">
         <v>362</v>
@@ -9127,11 +9127,11 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="178" t="s">
-        <v>177</v>
-      </c>
-      <c r="B81" s="178" t="s">
-        <v>362</v>
+      <c r="A81" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="C81" s="38">
         <v>1</v>
@@ -9139,72 +9139,72 @@
       <c r="D81" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E81" s="54" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>398</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C82" s="38">
+        <v>1</v>
+      </c>
+      <c r="D82" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="B83" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C83" s="47">
+        <v>1</v>
+      </c>
+      <c r="D83" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C82" s="38">
-        <v>1</v>
-      </c>
-      <c r="D82" s="39">
-        <v>1</v>
-      </c>
-      <c r="E82" s="54" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C83" s="38">
-        <v>1</v>
-      </c>
-      <c r="D83" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="B84" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="C84" s="47">
-        <v>1</v>
-      </c>
-      <c r="D84" s="48">
+      <c r="B84" s="177" t="s">
+        <v>360</v>
+      </c>
+      <c r="C84" s="38">
+        <v>1</v>
+      </c>
+      <c r="D84" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B85" s="177" t="s">
+        <v>361</v>
+      </c>
+      <c r="C85" s="38">
+        <v>1</v>
+      </c>
+      <c r="D85" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="177" t="s">
         <v>360</v>
       </c>
-      <c r="C85" s="38">
-        <v>1</v>
-      </c>
-      <c r="D85" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="B86" s="177" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C86" s="38">
         <v>1</v>
@@ -9215,7 +9215,7 @@
     </row>
     <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="177" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B87" s="177" t="s">
         <v>362</v>
@@ -9229,10 +9229,10 @@
     </row>
     <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="177" t="s">
-        <v>361</v>
-      </c>
-      <c r="B88" s="177" t="s">
         <v>362</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C88" s="38">
         <v>1</v>
@@ -9246,7 +9246,7 @@
         <v>362</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C89" s="38">
         <v>1</v>
@@ -9260,7 +9260,7 @@
         <v>362</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="C90" s="38">
         <v>1</v>
@@ -9274,7 +9274,7 @@
         <v>362</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="C91" s="38">
         <v>1</v>
@@ -9284,11 +9284,11 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="177" t="s">
-        <v>362</v>
+      <c r="A92" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="C92" s="38">
         <v>1</v>
@@ -9302,7 +9302,7 @@
         <v>402</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C93" s="38">
         <v>1</v>
@@ -9316,7 +9316,7 @@
         <v>402</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="C94" s="38">
         <v>1</v>
@@ -9330,7 +9330,7 @@
         <v>402</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="C95" s="38">
         <v>1</v>
@@ -9341,10 +9341,10 @@
     </row>
     <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>402</v>
+        <v>208</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="C96" s="38">
         <v>1</v>
@@ -9358,7 +9358,7 @@
         <v>208</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C97" s="38">
         <v>1</v>
@@ -9372,7 +9372,7 @@
         <v>208</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="C98" s="38">
         <v>1</v>
@@ -9386,7 +9386,7 @@
         <v>208</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="C99" s="38">
         <v>1</v>
@@ -9397,10 +9397,10 @@
     </row>
     <row r="100" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C100" s="38">
         <v>1</v>
@@ -9411,7 +9411,7 @@
     </row>
     <row r="101" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>154</v>
@@ -9425,7 +9425,7 @@
     </row>
     <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>154</v>
@@ -9439,7 +9439,7 @@
     </row>
     <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>154</v>
@@ -9453,11 +9453,11 @@
     </row>
     <row r="104" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B104" s="2" t="s">
         <v>154</v>
       </c>
+      <c r="B104" s="129" t="s">
+        <v>399</v>
+      </c>
       <c r="C104" s="38">
         <v>1</v>
       </c>
@@ -9466,8 +9466,8 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>154</v>
+      <c r="A105" s="33" t="s">
+        <v>203</v>
       </c>
       <c r="B105" s="129" t="s">
         <v>399</v>
@@ -9480,55 +9480,44 @@
       </c>
     </row>
     <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B106" s="129" t="s">
+      <c r="A106" s="129" t="s">
         <v>399</v>
       </c>
+      <c r="B106" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="C106" s="38">
         <v>1</v>
       </c>
       <c r="D106" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="129" t="s">
-        <v>399</v>
-      </c>
-      <c r="B107" s="2" t="s">
+      <c r="E106" s="67" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="C107" s="38">
-        <v>1</v>
-      </c>
-      <c r="D107" s="39">
-        <v>1</v>
-      </c>
-      <c r="E107" s="67" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="B108" s="34" t="s">
+      <c r="B107" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="C108" s="44">
-        <v>1</v>
-      </c>
-      <c r="D108" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="68"/>
-      <c r="B109" s="68"/>
-      <c r="C109" s="69"/>
-      <c r="D109" s="70"/>
+      <c r="C107" s="44">
+        <v>1</v>
+      </c>
+      <c r="D107" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="68"/>
+      <c r="B108" s="68"/>
+      <c r="C108" s="69"/>
+      <c r="D108" s="70"/>
+    </row>
+    <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C109" s="71"/>
     </row>
     <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C110" s="71"/>
@@ -9692,9 +9681,7 @@
     <row r="163" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C163" s="71"/>
     </row>
-    <row r="164" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C164" s="71"/>
-    </row>
+    <row r="164" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="165" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="166" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="167" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9707,11 +9694,10 @@
     <row r="174" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="175" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="176" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A109:B249">
-      <formula1>$A$2:$A$82</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A108:B248">
+      <formula1>$A$2:$A$81</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9729,7 +9715,7 @@
           <x14:formula1>
             <xm:f>component_list!$A$2:$A$71</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:B108</xm:sqref>
+          <xm:sqref>A2:B107</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
